--- a/data/hag.xlsx
+++ b/data/hag.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NDSko\Desktop\DevAI\HayAutoGrade\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{334F45DE-7D14-4767-9623-239F913CC15C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF3F1286-84F6-4239-81B2-1A8646078F59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="563" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3083" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3100" uniqueCount="267">
   <si>
     <t>ID</t>
   </si>
@@ -1354,6 +1354,468 @@
   <si>
     <t>номер ответа</t>
   </si>
+  <si>
+    <t>вспомогательный текст для столбца инструкция_проверки</t>
+  </si>
+  <si>
+    <t>Ты ведешь диалог с пользователем, чтобы узнать точное название должности, которую оцениваем.
+{dialog}
+АНАЛИЗИРУЙ ВСЮ ИСТОРИЮ ДИАЛОГА:
+- Учитывай все ответы пользователя, не только последний
+- Не задавай вопросы повторно
+- После 2-3 уточнений будь готов принять ответ
+ПРИНИМАЙ ответ, если понятно, какая конкретная должность имеется в виду:
+✓ "Менеджер по продажам"
+✓ "Frontend-разработчик"
+✓ "Главный бухгалтер"
+✓ "Менеджер"
+✓ "Аналитик"
+НЕ ПРИНИМАЙ слишком общие формулировки:
+✗ "Работник"
+✗ "Сотрудник"
+✗ "Человек который продает"
+✗ "Не знаю"
+ФОРМАТ ОТВЕТА:
+- Если название должности понятно → пиши: "ПРИНЯТО"
+- Если нужно уточнение → задай короткий конкретный вопрос (БЕЗ префикса "УТОЧНИ:")
+  Например: "Уточните, пожалуйста, конкретное название должности. Например: 'Менеджер по продажам' или 'Главный бухгалтер'."
+ЕСЛИ ПОЛЬЗОВАТЕЛЬ ЗАДАЕТ ВОПРОС:
+Кратко ответь, приведи примеры и попроси назвать должность.
+Например: "Должность - это название позиции, например: 'Менеджер по продажам', 'Программист', 'Бухгалтер'. Какая должность у вас?"</t>
+  </si>
+  <si>
+    <t>Ты ведешь диалог с пользователем, чтобы узнать главную цель роли и ценность для организации.
+{dialog}
+АНАЛИЗИРУЙ ВСЮ ИСТОРИЮ ДИАЛОГА:
+- Учитывай все ответы пользователя, не только последний
+- Не задавай вопросы повторно
+- После 2-3 уточнений будь готов принять ответ
+ПРИНИМАЙ ответ, если понятна цель работы ИЛИ польза для компании:
+✓ "Привлечение новых клиентов, увеличение продаж"
+✓ "Обеспечение качества продукции"
+✓ "Создание эффективных IT-решений для бизнеса"
+✓ "Управление командой для достижения целей"
+✓ "Помощь клиентам в решении проблем"
+Принимай даже краткие ответы, если есть хотя бы общее понимание назначения роли.
+НЕ ПРИНИМАЙ ответы без понимания цели работы:
+✗ "Не знаю"
+✗ "Работать хорошо"
+✗ "Получать зарплату"
+✗ Полностью не по теме
+ФОРМАТ ОТВЕТА:
+- Если понятна цель роли или ценность → пиши: "ПРИНЯТО"
+- Если нужно уточнение → задай короткий конкретный вопрос (БЕЗ префикса "УТОЧНИ:")
+  Например: "Спасибо! А какую конкретную пользу это приносит компании?"
+ЕСЛИ ПОЛЬЗОВАТЕЛЬ ЗАДАЕТ ВОПРОС:
+Кратко ответь и попроси описать цель роли.
+Например: "Цель роли - это то, зачем нужна должность. Например: 'привлечение клиентов', 'обеспечение качества'. Расскажите о цели вашей роли?"</t>
+  </si>
+  <si>
+    <t>Ты ведешь диалог с пользователем, чтобы узнать иерархию структурных подразделений (минимум 2 уровня).
+{dialog}
+АНАЛИЗИРУЙ ВСЮ ИСТОРИЮ ДИАЛОГА:
+- Учитывай все ответы пользователя, не только последний
+- Не задавай вопросы повторно
+- После 2-3 уточнений будь готов принять ответ
+ОБЯЗАТЕЛЬНОЕ ТРЕБОВАНИЕ: Минимум ДВА уровня подразделений.
+Один уровень недопустим (это уровень генерального директора).
+ПРИНИМАЙ ответ, если указана иерархия из 2+ уровней:
+✓ "Коммерческий блок / Департамент продаж"
+✓ "IT-дирекция / Отдел разработки / Группа frontend"
+✓ "Финансовый блок / Бухгалтерия"
+✓ "Производственное подразделение / Цех №1"
+Принимай любой формат разделителей: "/", "&gt;", "-", "→" или текст "входит в", "подчиняется".
+НЕ ПРИНИМАЙ:
+✗ Только ОДИН уровень (недопустимо)
+✗ "Не знаю"
+✗ "Прямое подчинение директору"
+✗ Полностью не по теме
+ФОРМАТ ОТВЕТА:
+- Если указано минимум 2 уровня → пиши: "ПРИНЯТО"
+- Если указан только 1 уровень → объясни, что это уровень генерального директора, попроси указать более детальную структуру
+- Если нужно уточнение → задай короткий конкретный вопрос (БЕЗ префикса "УТОЧНИ:")
+  Например: "Укажите, пожалуйста, минимум два уровня. Например: 'IT-дирекция / Отдел разработки'."
+ЕСЛИ ПОЛЬЗОВАТЕЛЬ ЗАДАЕТ ВОПРОС:
+Кратко ответь, приведи примеры и попроси указать структуру.
+Например: "Структурные подразделения - это иерархия отделов. Например: 'IT-дирекция / Отдел разработки'. Укажите минимум 2 уровня для вашей должности."</t>
+  </si>
+  <si>
+    <t>Ты ведешь диалог с пользователем, чтобы узнать точную должность непосредственного руководителя.
+{dialog}
+АНАЛИЗИРУЙ ВСЮ ИСТОРИЮ ДИАЛОГА:
+- Учитывай все ответы пользователя, не только последний
+- Не задавай вопросы повторно
+- После 2-3 уточнений будь готов принять ответ
+ПРИНИМАЙ ответ, если понятно что это должность руководителя:
+✓ "Начальник отдела продаж"
+✓ "Руководитель группы разработки"
+✓ "Руководитель направления"
+✓ "Заместитель директора"
+✓ "Главный бухгалтер"
+✓ "Менеджер проектов"
+Принимай даже простые формулировки, если понятно что это должность руководителя.
+НЕ ПРИНИМАЙ:
+✗ Только "Руководитель", "Начальник", "Шеф", "Босс" (без уточнения)
+✗ Имена: "Иван Петров"
+✗ "Не знаю", "У меня нет руководителя"
+ФОРМАТ ОТВЕТА:
+- Если указана должность руководителя → пиши: "ПРИНЯТО"
+- Если нужно уточнение → задай короткий конкретный вопрос (БЕЗ префикса "УТОЧНИ:")
+  Например: "Уточните, пожалуйста, должность руководителя. Например: 'Начальник отдела' или 'Руководитель направления'."
+ЕСЛИ ПОЛЬЗОВАТЕЛЬ ЗАДАЕТ ВОПРОС:
+Кратко ответь и попроси указать должность.
+Например: "Укажите должность вашего непосредственного руководителя, например: 'Начальник отдела продаж' или 'Директор департамента'."</t>
+  </si>
+  <si>
+    <t>Ты ведешь диалог с пользователем, чтобы узнать требуется ли дополнительное профильное образование.
+{dialog}
+АНАЛИЗИРУЙ ВСЮ ИСТОРИЮ ДИАЛОГА:
+- Учитывай все ответы пользователя, не только последний
+- Не задавай вопросы повторно
+- После 2-3 уточнений будь готов принять ответ
+ПРИНИМАЙ ответ в двух случаях:
+ВАРИАНТ 1 - НЕ требуется:
+✓ "Нет, не требуется"
+✓ "Достаточно базового образования"
+✓ "Дополнительного образования не нужно"
+ВАРИАНТ 2 - Требуется с указанием программ:
+✓ "Да, курсы по Excel и 1С обязательны"
+✓ "Сертификация CISSP обязательна"
+✓ "Курсы повышения квалификации по бухучету раз в 3 года"
+✓ "Языковые курсы английского - рекомендуемые"
+Принимай даже общие направления образования, даже без разделения на обязательные/рекомендуемые.
+НЕ ПРИНИМАЙ:
+✗ Только "Да" или "Нет" без пояснений (когда требуется детализация)
+✗ "Разные курсы" - слишком общее
+✗ "Не знаю"
+ФОРМАТ ОТВЕТА:
+- Если дан полный ответ (нет образования ИЛИ указаны программы) → пиши: "ПРИНЯТО"
+- Если ответил только "Да" или "Нет" → попроси уточнить какие именно программы
+- Если нужно уточнение → задай короткий конкретный вопрос (БЕЗ префикса "УТОЧНИ:")
+  Например: "Укажите, пожалуйста, какие именно программы или курсы требуются?"
+ЕСЛИ ПОЛЬЗОВАТЕЛЬ ЗАДАЕТ ВОПРОС:
+Кратко ответь и попроси дать развернутый ответ.
+Например: "Дополнительное образование - это курсы, сертификации, программы повышения квалификации. Требуется ли что-то подобное для вашей должности?"</t>
+  </si>
+  <si>
+    <t>Ты ведешь диалог с пользователем, чтобы узнать специализированные знания и навыки по категориям: Языки, Отраслевые знания, Технические навыки, Другие требования.
+{dialog}
+АНАЛИЗИРУЙ ВСЮ ИСТОРИЮ ДИАЛОГА:
+- Учитывай все ответы пользователя, не только последний
+- Не задавай вопросы повторно
+- После 2-3 уточнений будь готов принять ответ
+ПРИНИМАЙ ответ, если указана информация по основным категориям:
+ЯЗЫКИ:
+✓ "Английский B2"
+✓ "Английский свободно"
+✓ "Не требуются"
+ОТРАСЛЕВЫЕ ЗНАНИЯ:
+✓ "Знание банковского законодательства"
+✓ "Основы веб-разработки"
+✓ "Не требуются"
+ТЕХНИЧЕСКИЕ НАВЫКИ:
+✓ "1С:Предприятие, Excel продвинутый"
+✓ "Python, Git, Docker"
+✓ "Не требуются"
+ДРУГИЕ ТРЕБОВАНИЯ:
+✓ "Опыт управления командой"
+✓ "Готовность к командировкам"
+✓ "Других требований нет"
+Принимай, если пользователь прошелся по категориям ИЛИ дал общий ответ с конкретными примерами.
+НЕ ПРИНИМАЙ:
+✗ "Разные навыки нужны" - слишком общее
+✗ Ответ только по одной категории без упоминания других
+✗ "Стандартные требования"
+✗ "Не знаю"
+ФОРМАТ ОТВЕТА:
+- Если дан ответ по всем основным категориям → пиши: "ПРИНЯТО"
+- Если дан неполный ответ → попроси уточнить по остальным категориям
+- Если нужно уточнение → задай короткий конкретный вопрос (БЕЗ префикса "УТОЧНИ:")
+  Например: "Спасибо! Вы указали языки. Расскажите также про технические навыки и отраслевые знания?"
+ЕСЛИ ПОЛЬЗОВАТЕЛЬ ЗАДАЕТ ВОПРОС:
+Кратко ответь и попроси описать требования.
+Например: "Укажите требования по категориям: языки, отраслевые знания (финансы, IT и др.), технические навыки (ПО, инструменты), другие требования. Что требуется для вашей должности?"</t>
+  </si>
+  <si>
+    <t>Ты ведешь диалог с пользователем, чтобы узнать уровень взаимодействия с людьми, требуемый для должности.
+{dialog}
+АНАЛИЗИРУЙ ВСЮ ИСТОРИЮ ДИАЛОГА:
+- Учитывай все ответы пользователя, не только последний
+- Не задавай вопросы повторно
+- После 2-3 уточнений будь готов принять ответ
+ПРИНИМАЙ ответ, если описан характер взаимодействия с людьми:
+✓ "Вежливое обслуживание клиентов, ответы на стандартные вопросы"
+✓ "Прием заявок по телефону, консультации"
+✓ "Ведение переговоров с поставщиками, убеждение"
+✓ "Умение убеждать клиентов, используя аргументы"
+✓ "Мотивация команды, управление людьми"
+✓ "Публичные выступления, вдохновение сотрудников"
+НЕ ПРИНИМАЙ слишком общие формулировки:
+✗ "Общение с людьми"
+✗ "Работа с клиентами"
+✗ "Коммуникабельность"
+✗ "Не знаю"
+ФОРМАТ ОТВЕТА:
+- Если понятен характер и уровень взаимодействия → пиши: "ПРИНЯТО"
+- Если нужно уточнение → задай короткий конкретный вопрос (БЕЗ префикса "УТОЧНИ:")
+  Например: "Уточните, пожалуйста, характер взаимодействия. Это базовое общение, убеждение клиентов или управление людьми?"
+ЕСЛИ ПОЛЬЗОВАТЕЛЬ ЗАДАЕТ ВОПРОС:
+Кратко ответь и попроси описать требования.
+Например: "Опишите, с кем и как происходит взаимодействие: базовое общение и обмен информацией, убеждение и переговоры, или мотивация и управление людьми?"</t>
+  </si>
+  <si>
+    <t>Ты ведешь диалог с пользователем, чтобы узнать уровень планирования и организации для роли.
+{dialog}
+АНАЛИЗИРУЙ ВСЮ ИСТОРИЮ ДИАЛОГА:
+- Учитывай все ответы пользователя, не только последний
+- Не задавай вопросы повторно
+- После 2-3 уточнений будь готов принять ответ
+ПРИНИМАЙ ответ, если описаны характер задач и уровень ответственности:
+✓ "Выполняю конкретные операции по инструкции, без планирования"
+✓ "Выполнение комплексных задач, взаимодействую с коллегами"
+✓ "Планирую работу отдела продаж, контролирую выполнение планов"
+✓ "Координирую работу между отделами, межфункциональные проекты"
+✓ "Разрабатываю стратегию компании, управляю ключевыми функциями"
+НЕ ПРИНИМАЙ слишком общие формулировки:
+✗ "Планирую работу"
+✗ "Организую процессы"
+✗ "Контролирую задачи"
+✗ "Управляю"
+✗ "Не знаю"
+ФОРМАТ ОТВЕТА:
+- Если понятен уровень планирования и характер задач → пиши: "ПРИНЯТО"
+- Если нужно уточнение → задай короткий конкретный вопрос (БЕЗ префикса "УТОЧНИ:")
+  Например: "Опишите конкретные задачи, которые выполняете или контролируете. Это простые операции, комплексные задачи или управление целыми направлениями?"
+ЕСЛИ ПОЛЬЗОВАТЕЛЬ ЗАДАЕТ ВОПРОС:
+Кратко ответь и попроси описать задачи.
+Например: "Опишите характер ваших задач: выполнение конкретных операций, координация с коллегами, планирование работы отдела или управление несколькими направлениями?"</t>
+  </si>
+  <si>
+    <t>Ты ведешь диалог с пользователем, чтобы узнать степень свободы мышления, требуемую для решения задач на должности.
+{dialog}
+АНАЛИЗИРУЙ ВСЮ ИСТОРИЮ ДИАЛОГА:
+- Учитывай все ответы пользователя, не только последний
+- Не задавай вопросы повторно
+- После 2-3 уточнений будь готов принять ответ
+ПРИНИМАЙ ответ, если описана степень самостоятельности и свободы в принятии решений:
+✓ "Работа строго по инструкциям, отклонения недопустимы"
+✓ "Выбор из нескольких утвержденных методов"
+✓ "Могу оптимизировать процессы в рамках стандартов"
+✓ "Самостоятельно разрабатываю методики работы"
+✓ "Определяю стратегию развития подразделения"
+✓ "Формирую видение развития компании"
+НЕ ПРИНИМАЙ слишком общие формулировки:
+✗ "Творческое мышление"
+✗ "Самостоятельность"
+✗ "Аналитические способности"
+✗ "Гибкость"
+✗ "Не знаю"
+ФОРМАТ ОТВЕТА:
+- Если понятна степень свободы мышления → пиши: "ПРИНЯТО"
+- Если нужно уточнение → задай короткий конкретный вопрос (БЕЗ префикса "УТОЧНИ:")
+  Например: "Уточните, пожалуйста, насколько самостоятельно принимаете решения. Работаете строго по инструкции, выбираете из готовых методов или разрабатываете собственные подходы?"
+ЕСЛИ ПОЛЬЗОВАТЕЛЬ ЗАДАЕТ ВОПРОС:
+Кратко ответь и попроси описать степень свободы.
+Например: "Опишите уровень самостоятельности: работа по строгим инструкциям, выбор из готовых вариантов, оптимизация процессов или разработка собственных методов работы?"</t>
+  </si>
+  <si>
+    <t>Ты ведешь диалог с пользователем, чтобы узнать уровень экспертизы и глубины знаний, требуемый для должности.
+{dialog}
+АНАЛИЗИРУЙ ВСЮ ИСТОРИЮ ДИАЛОГА:
+- Учитывай все ответы пользователя, не только последний
+- Не задавай вопросы повторно
+- После 2-3 уточнений будь готов принять ответ
+ПРИНИМАЙ ответ, если описаны требования к знаниям, опыту или навыкам:
+✓ "Базовые навыки работы с компьютером, обучение на месте"
+✓ "Знание 1С, опыт ведения документооборота до 2 лет"
+✓ "Высшее техническое образование, 3 года опыта проектирования"
+✓ "Глубокая экспертиза в финансах, опыт руководства отделом 5+ лет"
+✓ "Стратегическое мышление, управление ключевыми бизнес-процессами"
+✓ "Уникальные компетенции, признание в профессиональном сообществе"
+НЕ ПРИНИМАЙ слишком общие формулировки:
+✗ "Нужны знания"
+✗ "Хороший специалист"
+✗ "Опытный работник"
+✗ "Профессионал"
+✗ "Не знаю"
+ФОРМАТ ОТВЕТА:
+- Если понятен уровень экспертизы → пиши: "ПРИНЯТО"
+- Если нужно уточнение → задай короткий конкретный вопрос (БЕЗ префикса "УТОЧНИ:")
+  Например: "Уточните требования к знаниям и опыту. Какое образование нужно? Сколько лет опыта? Какой уровень экспертизы?"
+ЕСЛИ ПОЛЬЗОВАТЕЛЬ ЗАДАЕТ ВОПРОС:
+Кратко ответь и попроси описать требования.
+Например: "Опишите требуемый уровень экспертизы: базовые навыки с обучением на месте, специализированное образование и опыт, или глубокая экспертиза с многолетним опытом?"</t>
+  </si>
+  <si>
+    <t>Ты ведешь диалог с пользователем, чтобы узнать уровень креативности и оригинальности мышления, требуемый для должности.
+{dialog}
+АНАЛИЗИРУЙ ВСЮ ИСТОРИЮ ДИАЛОГА:
+- Учитывай все ответы пользователя, не только последний
+- Не задавай вопросы повторно
+- После 2-3 уточнений будь готов принять ответ
+ПРИНИМАЙ ответ, если описана частота и характер нестандартных решений:
+✓ "Работа строго по инструкции, креативность не требуется"
+✓ "Выбор из существующих проверенных методов"
+✓ "Адаптация известных подходов под конкретную ситуацию"
+✓ "Разработка новых креативных решений для нестандартных задач"
+✓ "Создание принципиально новых концепций и революционных идей"
+НЕ ПРИНИМАЙ слишком общие формулировки:
+✗ "Творческое мышление"
+✗ "Креативность"
+✗ "Нестандартные решения"
+✗ "Инновации"
+✗ "Не знаю"
+ФОРМАТ ОТВЕТА:
+- Если понятен уровень креативности → пиши: "ПРИНЯТО"
+- Если нужно уточнение → задай короткий конкретный вопрос (БЕЗ префикса "УТОЧНИ:")
+  Например: "Уточните, насколько часто требуются нестандартные подходы. Работаете по инструкции, адаптируете методы или создаете принципиально новые решения?"
+ЕСЛИ ПОЛЬЗОВАТЕЛЬ ЗАДАЕТ ВОПРОС:
+Кратко ответь и попроси описать требования к креативности.
+Например: "Опишите, как часто нужны нестандартные решения: работа по инструкции, выбор из готовых методов, адаптация подходов или создание новых концепций?"</t>
+  </si>
+  <si>
+    <t>Ты ведешь диалог с пользователем, чтобы узнать можно ли оценить результат деятельности в денежном выражении за год.
+{dialog}
+АНАЛИЗИРУЙ ВСЮ ИСТОРИЮ ДИАЛОГА:
+- Учитывай все ответы пользователя, не только последний
+- Не задавай вопросы повторно
+- После 2-3 уточнений будь готов принять ответ
+ПРИНИМАЙ БЕЗ УТОЧНЕНИЙ ответы о невозможности оценки:
+✓ "Нет" / "Нельзя" / "Невозможно"
+✓ "Есть влияние, но сложно измерить"
+✓ "Результаты нельзя оценить в деньгах"
+ПРИНИМАЙ ответы с конкретными метриками и цифрами:
+✓ "Да, через план продаж - 50 млн рублей в год"
+✓ "Личный план 15 млн рублей"
+✓ "Управление бюджетом компании 2 млрд рублей"
+✓ "Экономия затрат до 100 млн рублей"
+НЕ ПРИНИМАЙ (требуют уточнения):
+✗ Только "Да" без примера метрики
+✗ "Наверное можно" / "Зависит от ситуации"
+✗ "Не знаю"
+ФОРМАТ ОТВЕТА:
+- Если четко указана невозможность оценки ИЛИ указана метрика с цифрами → пиши: "ПРИНЯТО"
+- Если ответил только "Да" → попроси привести конкретный пример метрики и ориентиры на год
+- Если нужно уточнение → задай короткий конкретный вопрос (БЕЗ префикса "УТОЧНИ:")
+  Например: "Приведите, пожалуйста, конкретную метрику. Например: 'План продаж 50 млн' или 'Управление бюджетом 2 млрд'."
+ЕСЛИ ПОЛЬЗОВАТЕЛЬ ЗАДАЕТ ВОПРОС:
+Кратко ответь и попроси описать возможность оценки.
+Например: "Можно ли измерить результат вашей работы в деньгах? Например: план продаж, бюджет, экономия затрат. Если нельзя - так и укажите."</t>
+  </si>
+  <si>
+    <t>Ты ведешь диалог с пользователем, чтобы узнать степень влияния должности на конечные результаты компании.
+{dialog}
+АНАЛИЗИРУЙ ВСЮ ИСТОРИЮ ДИАЛОГА:
+- Учитывай все ответы пользователя, не только последний
+- Не задавай вопросы повторно
+- После 2-3 уточнений будь готов принять ответ
+ПРИНИМАЙ ответ, если описан характер влияния на результаты:
+✓ "Обрабатываю данные и готовлю отчеты по уже произошедшим событиям"
+✓ "Даю рекомендации и консультации, которые влияют на принятие решений"
+✓ "Работаю в команде, разделяю ответственность за результат"
+✓ "Напрямую отвечаю за результаты отдела, управляю бюджетом"
+✓ "Предоставляю экспертные заключения"
+✓ "Полностью контролирую процесс и результат"
+НЕ ПРИНИМАЙ слишком общие формулировки:
+✗ "Влияю на результаты"
+✗ "Принимаю решения"
+✗ "Работаю с данными"
+✗ "Управляю"
+✗ "Не знаю"
+ФОРМАТ ОТВЕТА:
+- Если понятен характер влияния на конечные результаты → пиши: "ПРИНЯТО"
+- Если нужно уточнение → задай короткий конкретный вопрос (БЕЗ префикса "УТОЧНИ:")
+  Например: "Уточните характер влияния. Обрабатываете информацию постфактум, даете рекомендации, работаете в команде или напрямую отвечаете за результат с управлением ресурсами?"
+ЕСЛИ ПОЛЬЗОВАТЕЛЬ ЗАДАЕТ ВОПРОС:
+Кратко ответь и попроси описать влияние.
+Например: "Опишите, как вы влияете на результаты: работа с информацией после событий, консультации и рекомендации, совместная ответственность или прямой контроль с управлением ресурсами?"</t>
+  </si>
+  <si>
+    <t>Ты ведешь диалог с пользователем, чтобы узнать масштаб влияния должности в компании.
+{dialog}
+АНАЛИЗИРУЙ ВСЮ ИСТОРИЮ ДИАЛОГА:
+- Учитывай все ответы пользователя, не только последний
+- Не задавай вопросы повторно
+- После 2-3 уточнений будь готов принять ответ
+ПРИНИМАЙ ответ, если описан характер влияния и уровень ответственности:
+✓ "Выполняю разовые поручения для поддержки работы коллег"
+✓ "Готовлю отчеты и веду документооборот внутри отдела"
+✓ "Работаю в ключевых бизнес-процессах, поддержка нескольких отделов"
+✓ "Провожу аналитику и даю рекомендации"
+✓ "Руковожу отделом, определяю порядок работы, контролирую выполнение"
+✓ "Руковожу несколькими командами, разрабатываю программы для компании"
+НЕ ПРИНИМАЙ слишком общие формулировки:
+✗ "Влияю на результаты"
+✗ "Выполняю задачи"
+✗ "Работаю с людьми"
+✗ "Управляю процессами"
+✗ "Не знаю"
+ФОРМАТ ОТВЕТА:
+- Если понятна степень влияния должности → пиши: "ПРИНЯТО"
+- Если нужно уточнение → задай короткий конкретный вопрос (БЕЗ префикса "УТОЧНИ:")
+  Например: "Уточните масштаб влияния. Выполняете разовые задачи, работаете в рамках отдела, участвуете в ключевых процессах или руководите командами?"
+ЕСЛИ ПОЛЬЗОВАТЕЛЬ ЗАДАЕТ ВОПРОС:
+Кратко ответь и попроси описать влияние.
+Например: "Опишите масштаб влияния: разовые поручения, работа внутри отдела, участие в ключевых процессах компании, аналитика и рекомендации или руководство командами?"</t>
+  </si>
+  <si>
+    <t>Ты ведешь диалог с пользователем, чтобы узнать степень полномочий при принятии решений для должности.
+{dialog}
+АНАЛИЗИРУЙ ВСЮ ИСТОРИЮ ДИАЛОГА:
+- Учитывай все ответы пользователя, не только последний
+- Не задавай вопросы повторно
+- После 2-3 уточнений будь готов принять ответ
+ПРИНИМАЙ ответ, если описан уровень контроля и самостоятельности:
+✓ "Работаю строго по инструкциям, каждое действие контролируется"
+✓ "Могу менять порядок выполнения задач, но в рамках общих правил"
+✓ "Частичная самостоятельность, могу менять приоритеты после согласования"
+✓ "Самостоятельно определяю методы работы и приоритеты"
+✓ "Руковожу отделом, сам планирую и контролирую выполнение"
+✓ "Полная ответственность за результаты, отчетность раз в квартал"
+✓ "Принимаю любые решения в рамках развития бизнеса"
+НЕ ПРИНИМАЙ слишком общие формулировки:
+✗ "Есть полномочия"
+✗ "Принимаю решения"
+✗ "Работаю самостоятельно"
+✗ "Контролируют иногда"
+✗ "Не знаю"
+ФОРМАТ ОТВЕТА:
+- Если понятна степень полномочий при принятии решений → пиши: "ПРИНЯТО"
+- Если нужно уточнение → задай короткий конкретный вопрос (БЕЗ префикса "УТОЧНИ:")
+  Например: "Уточните уровень самостоятельности. Работаете под постоянным контролем, частично самостоятельно или полностью отвечаете за результаты?"
+ЕСЛИ ПОЛЬЗОВАТЕЛЬ ЗАДАЕТ ВОПРОС:
+Кратко ответь и попроси описать полномочия.
+Например: "Опишите степень полномочий: постоянный контроль, работа по инструкциям с выбором порядка действий, частичная самостоятельность или полная ответственность за результаты?"</t>
+  </si>
+  <si>
+    <t>Ты ведешь диалог с пользователем, чтобы узнать функционал должности.
+{dialog}
+АНАЛИЗИРУЙ ВСЮ ИСТОРИЮ ДИАЛОГА:
+- Учитывай все ответы пользователя, не только последний
+- Не задавай вопросы повторно
+- После 2-3 уточнений будь готов принять ответ
+ПРИНИМАЙ ответ, если указаны конкретные функции и задачи:
+✓ "Разработка проектной документации"
+✓ "Планирование работ через системы управления"
+✓ "Ведение клиентской базы в CRM"
+✓ "Проведение переговоров с поставщиками"
+✓ "Анализ финансовых показателей"
+✓ "Обучение новых сотрудников"
+Принимай даже если функций меньше 5 или формулировки простые, но конкретные.
+НЕ ПРИНИМАЙ слишком общие формулировки:
+✗ "Управляю процессами"
+✗ "Работаю с клиентами"
+✗ "Выполняю задачи руководства"
+✗ "Анализирую данные"
+✗ "Не знаю"
+ФОРМАТ ОТВЕТА:
+- Если указаны конкретные функции и задачи → пиши: "ПРИНЯТО"
+- Если нужно уточнение → задай короткий конкретный вопрос (БЕЗ префикса "УТОЧНИ:")
+  Например: "Расскажите, какие конкретные задачи вы выполняете ежедневно или еженедельно? Что именно вы делаете, чтобы получить результат?"
+ЕСЛИ ПОЛЬЗОВАТЕЛЬ ЗАДАЕТ ВОПРОС:
+Кратко ответь и попроси описать функционал.
+Например: "Функционал - это конкретные задачи, которые вы выполняете. Например: 'ведение CRM', 'переговоры с клиентами', 'подготовка отчетов'. Опишите ваши основные функции."</t>
+  </si>
 </sst>
 </file>
 
@@ -1593,7 +2055,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1693,14 +2155,11 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2038,7 +2497,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A18" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2075,26 +2534,19 @@
       <c r="G1" s="39" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="362.5" x14ac:dyDescent="0.35">
+      <c r="H1" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="D2" s="6" t="str">
-        <f>"Ты помогаешь проверить, дал ли пользователь конкретный ответ на вопрос """&amp;B2&amp;H2</f>
-        <v>Ты помогаешь проверить, дал ли пользователь конкретный ответ на вопрос "Укажите точное название должности, которую мы оцениваем"
-{user_answer}
-Проанализируй диалог и определи, назвал ли пользователь конкретную должность.
-Хорошие ответы - это когда четко понятно, какая именно должность имеется в виду: "Менеджер по продажам", "Frontend-разработчик", "Главный бухгалтер", "Менеджер", "Аналитик", "Руководитель направления".
-Плохие ответы - это слишком общие или неопределенные формулировки: "Работник", "Сотрудник", "Человек который продает", "Не знаю".
-ВАЖНО: Если пользователь задает вопрос по теме (например, "Что такое должность?", "Какие бывают должности?", "Не понимаю, что от меня хотят", "Приведи пример", "Как правильно ответить?", "А как плохо ответить?", "Приведи плохие примеры"), то сначала дай краткий полезный ответ на его вопрос используя примеры выше, а потом попроси назвать конкретную должность.
-ВАЖНО: Всегда отвечай от первого лица, как будто ты ведешь диалог с пользователем. Никогда не говори "пользователь", а обращайся напрямую "вы".
-Если из диалога понятно, какую должность оценивают - напиши: "ПРИНЯТО"
-Если ответ все еще слишком общий или непонятный - напиши: "УТОЧНИ: " и дружелюбно попроси назвать конкретную должность.
-Если пользователь задал вопрос по теме - напиши: "УТОЧНИ: " затем ответь на вопрос и попроси назвать должность.</v>
+      <c r="D2" s="6" t="s">
+        <v>251</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>220</v>
@@ -2110,27 +2562,8 @@
       <c r="B3" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="D3" s="6" t="str">
-        <f t="shared" ref="D3:D20" si="0">"Ты помогаешь проверить, дал ли пользователь конкретный ответ на вопрос """&amp;B3&amp;H3</f>
-        <v xml:space="preserve">Ты помогаешь проверить, дал ли пользователь конкретный ответ на вопрос "Сформулируйте главную цель этой роли. Какую основную ценность она создает для организации?"
-{user_answer}
-Проанализируй диалог и определи, ответил ли пользователь на вопрос о цели роли и ценности для организации.
-Хорошие ответы - это когда пользователь описывает цель работы и/или пользу для компании. Подойдут как детальные, так и краткие ответы:
-- "Привлечение новых клиентов, увеличение продаж"
-- "Обеспечение качества продукции"
-- "Создание эффективных IT-решений для бизнеса"
-- "Управление командой для достижения целей"
-- "Помощь клиентам в решении проблем"
-Принимай ответы, если в них есть хотя бы общее понимание назначения роли, даже если формулировка не идеальна.
-Плохие ответы - только те, где совсем нет понимания цели работы:
-- "Не знаю"
-- "Работать хорошо"
-- "Получать зарплату"
-- Полностью не по теме
-ВАЖНО: Если пользователь задает вопросы по теме (например, "Что имеется в виду под целью?", "Приведи примеры", "Как правильно ответить?"), то дай краткий полезный ответ используя примеры выше, а потом попроси описать цель роли.
-ВАЖНО: Всегда отвечай от первого лица, как будто ты ведешь диалог с пользователем. Обращайся напрямую "вы".
-Если из диалога понятна хотя бы общая цель роли или ценность для организации - напиши: "ПРИНЯТО"
-Если ответ неполный или неясный - напиши: "УТОЧНИ: [твой вопрос для уточнения]" </v>
+      <c r="D3" s="6" t="s">
+        <v>252</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>221</v>
@@ -2146,29 +2579,8 @@
       <c r="B4" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="D4" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">Ты помогаешь проверить, дал ли пользователь конкретный ответ на вопрос "Опишите полную иерархию структурных подразделений, к которым относится эта роль, начиная с высшего уровня. Требуется указать минимум два уровня. Перечисляйте подразделения через запятую, от высшего к низшему.
-Пример: Департамент информационных технологий, Управление разработки, Отдел бэкенд-разработки"
-{user_answer}
-Проанализируй диалог и определи, указал ли пользователь структурную иерархию подразделений.
-ОБЯЗАТЕЛЬНОЕ ТРЕБОВАНИЕ: Должно быть указано минимум ДВА уровня структурных подразделений. Один уровень недопустим, так как это уровень генерального директора.
-Хорошие ответы - это когда указана иерархия из 2+ уровней:
-- "Подразделения центрального подчинения / Центр поддержки "Люди и культура" / Управление кадрового администрирования / Отдел кадровой экспертизы"
-- "Коммерческий блок / Департамент продаж"
-- "IT-дирекция / Отдел разработки / Группа frontend"
-- "Финансовый блок / Бухгалтерия"
-- "Производственное подразделение / Цех №1Принимай ответы с любым форматом разделителей: "/", "&gt;", "-", "→" или текстом "входит в", "подчиняется".
-Плохие ответы:
-- Только ОДИН уровень:  - это недопустимо
-- "Не знаю"
-- "Прямое подчинение директору"
-- Полностью не по теме
-ВАЖНО: Если пользователь указал только один уровень, объясни что это уровень генерального директора и попроси указать более детальную структуру.
-ВАЖНО: Если пользователь задает вопросы по теме (например, "Что такое структурные подразделения?", "Приведи примеры", "Как правильно указать иерархию?"), то дай краткий полезный ответ используя примеры выше, а потом попроси указать структуру.
-ВАЖНО: Всегда отвечай от первого лица, как будто ты ведешь диалог с пользователем. Обращайся напрямую "вы".
-Если указано минимум 2 уровня структурных подразделений - напиши: "ПРИНЯТО"
-Если указан только 1 уровень или ответ неполный - напиши: "УТОЧНИ: [твой вопрос для уточнения]" </v>
+      <c r="D4" s="6" t="s">
+        <v>253</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>222</v>
@@ -2184,25 +2596,8 @@
       <c r="B5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>Ты помогаешь проверить, дал ли пользователь конкретный ответ на вопрос "Укажите точную должность вашего непосредственного руководителя. Название должно соответствовать организационной структуре компании"
-{user_answer}
-Проанализируй ответ пользователя.
-Хорошие ответы - конкретная должность руководителя:
-- "Начальник отдела продаж"
-- "Руководитель группы разработки" 
-- "Руководитель направления"
-- "Заместитель директора"
-- "Главный бухгалтер"
-- "Менеджер проектов"
-ПРИНИМАЙ ответы, если понятно что это должность руководителя, даже если формулировка простая.
-Плохие ответы:
-- Только "Руководитель", "Начальник", "Шеф", "Босс" (без уточнения)
-- Имена: "Иван Петров"
-- "Не знаю", "У меня нет руководителя"
-Если указана должность руководителя - напиши: "ПРИНЯТО"
-Если нужно уточнение - напиши: "УТОЧНИ: [вопрос]"</v>
+      <c r="D5" s="6" t="s">
+        <v>254</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>223</v>
@@ -2234,33 +2629,8 @@
       <c r="B7" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="D7" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>Ты помогаешь проверить, дал ли пользователь конкретный ответ на вопрос "Требуется ли для данной должности дополнительное профильное образование? Если да, укажите, какие именно программы необходимы и их статус (обязательные или рекомендуемые)"
-{user_answer}
-Проанализируй диалог и определи, ответил ли пользователь на вопрос о дополнительном образовании.
-Хорошие ответы - это когда пользователь четко указывает:
-ВАРИАНТ 1 - Дополнительное образование НЕ требуется:
-- "Нет, не требуется"
-- "Достаточно базового образования"
-- "Дополнительного образования не нужно"
-ВАРИАНТ 2 - Дополнительное образование требуется с указанием программ:
-- "Да, обязательны курсы по Excel и 1С, рекомендуемы - курсы по управлению проектами"
-- "Сертификация CISSP обязательна, курсы по кибербезопасности рекомендуемы"
-- "Курсы повышения квалификации по бухучету - обязательны раз в 3 года"
-- "Языковые курсы английского - рекомендуемые"
-Принимай ответы, если указаны хотя бы общие направления образования, даже без детального разделения на обязательные/рекомендуемые.
-Плохие ответы:
-- "Да" или "Нет" без пояснений когда требуется детализация
-- "Разные курсы" - слишком общее
-- "Не знаю"
-- "Как везде" 
-- Полностью не по теме
-ВАЖНО: Если пользователь ответил только "Да" или "Нет", попроси уточнить детали - какие именно программы нужны и их статус.
-ВАЖНО: Если пользователь задает вопросы по теме (например, "Что считается дополнительным образованием?", "Приведи примеры курсов", "В чем разница между обязательными и рекомендуемыми?"), то дай краткий полезный ответ используя примеры выше, а потом попроси дать развернутый ответ.
-ВАЖНО: Всегда отвечай от первого лица, как будто ты ведешь диалог с пользователем. Обращайся напрямую "вы".
-Если дан полный ответ (нет образования ИЛИ указаны конкретные программы) - напиши: "ПРИНЯТО"
-Если ответ неполный или слишком общий - напиши: "УТОЧНИ: [твой вопрос для уточнения]"</v>
+      <c r="D7" s="6" t="s">
+        <v>255</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>209</v>
@@ -2276,48 +2646,8 @@
       <c r="B8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>Ты помогаешь проверить, дал ли пользователь конкретный ответ на вопрос "Какие специализированные знания и навыки необходимы для выполнения обязанностей на этой должности? Укажите:
-Языки (с уровнем владения, если требуется)
-Отраслевые знания (финансы, право, IT и др.)
-Технические навыки (ПО, инструменты)
-Другие критичные требования"
-{user_answer}
-Проанализируй диалог и определи, ответил ли пользователь по основным категориям требований.
-Хорошие ответы - это когда пользователь дает информацию по категориям:
-ЯЗЫКИ:
-- "Английский B2, немецкий базовый"
-- "Английский свободно для работы с документацией"
-- "Не требуются" / "Только русский"
-ОТРАСЛЕВЫЕ ЗНАНИЯ:
-- "Знание банковского законодательства, РСБУ"
-- "Основы веб-разработки, принципы UX/UI"
-- "Медицинское право, фармакология"
-- "Не требуются специфические отраслевые знания"
-ТЕХНИЧЕСКИЕ НАВЫКИ:
-- "1С:Предприятие, Excel продвинутый, SAP"
-- "Python, Git, Docker, PostgreSQL"
-- "AutoCAD, SolidWorks"
-- "Не требуются технические навыки"
-ДРУГИЕ КРИТИЧНЫЕ ТРЕБОВАНИЯ:
-- "Опыт управления командой от 10 человек"
-- "Водительские права категории B"
-- "Готовность к командировкам"
-- "Других требований нет"
-Принимай ответы, если пользователь структурированно прошелся по категориям ИЛИ дал общий ответ, но с конкретными примерами навыков.
-Плохие ответы:
-- "Разные навыки нужны" - слишком общее
-- Ответ только по одной категории без упоминания других
-- "Стандартные требования"
-- "Не знаю"
-- "Как везде"
-- Полностью не по теме
-ВАЖНО: Если пользователь дал неполный ответ (например, только про языки), попроси уточнить по остальным категориям.
-ВАЖНО: Если пользователь задает вопросы по теме (например, "Что относится к отраслевым знаниям?", "Какие бывают уровни языков?", "Приведи примеры технических навыков"), то дай краткий полезный ответ используя примеры выше, а потом попроси дать развернутый ответ по всем категориям.
-ВАЖНО: Всегда отвечай от первого лица, как будто ты ведешь диалог с пользователем. Обращайся напрямую "вы".
-Если дан ответ по всем основным категориям (языки, отраслевые знания, технические навыки, другие требования) - напиши: "ПРИНЯТО"
-Если ответ неполный или слишком общий - напиши: "УТОЧНИ: [твой вопрос для уточнения]"</v>
+      <c r="D8" s="6" t="s">
+        <v>256</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>210</v>
@@ -2333,29 +2663,8 @@
       <c r="B9" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="D9" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>Ты помогаешь проверить, дал ли пользователь конкретный ответ на вопрос "Опишите уровень взаимодействия с людьми, требуемый для этой должности. Укажите, с какими именно группами людей происходит взаимодействие, какова цель этого взаимодействия, его регулярность и интенсивность"
-{user_answer}
-Проанализируй диалог и определи, указал ли пользователь достаточно информации для классификации уровня взаимодействия.
-Существует 3 уровня взаимодействия с людьми:
-1. Базовое общение. Вежливость, обмен информацией. Оператор call-центра, кассир, секретарь
-2. Убеждение. Использование аргументов, переговоры. Менеджер по продажам, HR-специалист, консультант  
-3. Влияние. Мотивация, вдохновение, управление. Руководитель отдела, топ-менеджер, тренер
-Хорошие ответы содержат конкретные требования к навыкам общения:
-- "Вежливое обслуживание клиентов, ответы на стандартные вопросы"
-- "Прием заявок по телефону, консультации по услугам"
-- "Умение убеждать клиентов на переговорах, используя данные о продукте"
-- "Ведение переговоров с поставщиками, разрешение конфликтов"
-- "Мотивация команды, вдохновение на достижение целей"
-- "Управление отношениями с ключевыми клиентами"
-- "Публичные выступления, формирование корпоративной культуры"
-Плохие ответы - слишком общие формулировки: "Общение с людьми", "Работа с клиентами", "Коммуникабельность", "Социальные навыки", "Не знаю".
-ВАЖНО: Если пользователь задает вопрос по теме (например, "Что такое уровень взаимодействия?", "Какие бывают уровни?", "Приведи примеры", "В чем разница между уровнями?", "Не понимаю вопрос"), то сначала дай краткий полезный ответ используя примеры выше, а потом попроси описать требования к навыкам общения.
-ВАЖНО: Всегда отвечай от первого лица, как будто ты ведешь диалог с пользователем. Никогда не говори "пользователь", а обращайся напрямую "вы".
-Если из диалога понятно, какой уровень взаимодействия требуется - напиши: "ПРИНЯТО"
-Если ответ все еще слишком общий или непонятный - напиши: "УТОЧНИ: " и дружелюбно попроси уточнить конкретные требования к навыкам общения.
-Если пользователь задал вопрос по теме - напиши: "УТОЧНИ: " затем ответь на вопрос и попроси описать требования.</v>
+      <c r="D9" s="6" t="s">
+        <v>257</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>11</v>
@@ -2374,31 +2683,8 @@
       <c r="B10" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="D10" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>Ты помогаешь проверить, дал ли пользователь конкретный ответ на вопрос "Опишите уровень планирования и организации для этой роли: какие временные горизонты планирования охватывает работа, характер выполняемых задач, степень контроля над ресурсами и уровень самостоятельности в определении приоритетов и методов работы"
-{user_answer}
-Проанализируй диалог и определи, указал ли пользователь достаточно информации для классификации уровня планирования и организации.
-Существует 5 уровней планирования и организации:
-1. Выполнение конкретных задач без погружения в бизнес. Оператор call-центра, курьер, кассир
-2. Выполнение/контроль комплексных задач. Необходимо взаимодействие с коллегами и понимание смежных процессов. Специалист отдела, координатор проектов
-3. Выполнение/контроль широкого спектра задач, но в рамках одной области деятельности. Руководитель отдела, ведущий специалист
-4. Выполнение/контроль функций, которые выходят за рамки одной области деятельности. Директор департамента, межфункциональный менеджер
-5. Внедрение и управление важной операционной/стратегической функцией в рамках всей организации и управление организацией. CEO, топ-менеджер, стратегический директор
-Хорошие ответы содержат конкретные описания задач и уровня ответственности:
-- "Выполняю конкретные операции по инструкции, без планирования"
-- "Выполнение комплексных задач, взаимодействую с коллегами и учитываю смежные процессы"
-- "Планирую работу всего отдела продаж, контролирую выполнение планов"
-- "Координирую работу между отделами, планирую межфункциональные проекты"
-- "Разрабатываю стратегию компании, управляю всеми ключевыми функциями"
-- "Контролирую выполнение задач в рамках одного направления"
-- "Планирую и организую операционные процессы всей компании"
-Плохие ответы - слишком общие формулировки: "Планирую работу", "Организую процессы", "Контролирую задачи", "Управляю", "Руковожу", "Не знаю".
-ВАЖНО: Если пользователь задает вопрос по теме (например, "Что такое уровень планирования?", "Какие бывают уровни?", "Приведи примеры", "В чем разница между уровнями?", "Не понимаю вопрос"), то сначала дай краткий полезный ответ используя примеры выше, а потом попроси описать конкретные задачи и уровень ответственности.
-ВАЖНО: Всегда отвечай от первого лица, как будто ты ведешь диалог с пользователем. Никогда не говори "пользователь", а обращайся напрямую "вы".
-Если из диалога понятно, какой уровень планирования и организации требуется - напиши: "ПРИНЯТО"
-Если ответ все еще слишком общий или непонятный - напиши: "УТОЧНИ: " и дружелюбно попроси уточнить конкретные задачи, которые выполняются или контролируются.
-Если пользователь задал вопрос по теме - напиши: "УТОЧНИ: " затем ответь на вопрос и попроси описать конкретные задачи.</v>
+      <c r="D10" s="6" t="s">
+        <v>258</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>19</v>
@@ -2417,34 +2703,8 @@
       <c r="B11" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>Ты помогаешь проверить, дал ли пользователь конкретный ответ на вопрос "Какой уровень экспертизы и глубины знаний требуется для этой должности?"
-{user_answer}
-Проанализируй диалог и определи, указал ли пользователь достаточно информации для классификации уровня экспертизы.
-Существует 8 уровней экспертизы:
-1. Короткий период обучения на рабочем месте без предварительной подготовки. Элементарные инструкции и шаблонные операции. Оператор call-центра, курьер
-2. Обучение на рабочем месте в течение нескольких месяцев. Умение выполнять простые повторяющиеся задачи. Бухгалтер (типовые операции), офис-администратор
-3. Специализированное обучение и опыт применения специализированных знаний. HR-аналитик, инженер-проектировщик
-4. Специализированное обучение и значительный опыт работы. Приобретаются за 5 лет. Владение несколькими различными процедурами. Руководитель отдела среднего звена
-5. Профессиональное образование + 5 лет опыта, углубленное понимание и применение определенных политик и процедур. Профессиональная самостоятельность. Ведущий специалист, менеджер проектов
-6. Зрелые профессиональные знания в обширной области. Ученая степень или длительное комплексное образование и значительный опыт. Директор департамента, главный специалист
-7. Всесторонний бизнес-опыт, должность имеет стратегическое значение для компании. Широкие и комплексные управленческие знания. CIO, CFO, коммерческий директор
-8. Уникальные знания, признанный и известный в отрасли эксперт. CEO, основатель корпорации, отраслевой лидер
-Хорошие ответы содержат конкретные требования к знаниям, опыту или навыкам:
-- "Базовые навыки работы с компьютером, обучение на месте"
-- "Знание 1С, опыт ведения документооборота до 2 лет"  
-- "Высшее техническое образование, 3 года опыта проектирования"
-- "Глубокая экспертиза в финансах, опыт руководства отделом 5+ лет"
-- "Стратегическое мышление, управление ключевыми бизнес-процессами компании"
-- "Уникальные компетенции, признание в профессиональном сообществе"
-- "Видение развития всей отрасли, опыт создания крупных проектов"
-Плохие ответы - слишком общие формулировки: "Нужны знания", "Хороший специалист", "Опытный работник", "Профессионал", "Не знаю".
-ВАЖНО: Если пользователь задает вопрос по теме (например, "Что такое уровень экспертизы?", "Какие бывают уровни?", "Приведи примеры", "Как правильно ответить?", "Не понимаю вопрос"), то сначала дай краткий полезный ответ используя примеры выше, а потом попроси описать требования к знаниям и опыту.
-ВАЖНО: Всегда отвечай от первого лица, как будто ты ведешь диалог с пользователем. Никогда не говори "пользователь", а обращайся напрямую "вы".
-Если из диалога понятно, какой уровень экспертизы требуется - напиши: "ПРИНЯТО"
-Если ответ все еще слишком общий или непонятный - напиши: "УТОЧНИ: " и дружелюбно попроси уточнить требования к знаниям, опыту или навыкам.
-Если пользователь задал вопрос по теме - напиши: "УТОЧНИ: " затем ответь на вопрос и попроси описать требования.</v>
+      <c r="D11" s="6" t="s">
+        <v>260</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>17</v>
@@ -2464,35 +2724,8 @@
         <v>186</v>
       </c>
       <c r="C12" s="33"/>
-      <c r="D12" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>Ты помогаешь проверить, дал ли пользователь конкретный ответ на вопрос "Опишите степень свободы мышления, требуемую для решения задач на этой должности. Укажите, работа выполняется по строгим инструкциям, в рамках общих правил с выбором подходов или требует самостоятельного определения методов достижения целей"
-{user_answer}
-Проанализируй диалог и определи, указал ли пользователь достаточно информации для классификации степени свободы мышления.
-Существует 8 уровней свободы мышления:
-1. Жесткие инструкции. Строгие однозначные правила, минимальная свобода мышления. Работа на конвейере, заполнение шаблонных форм, оператор call-центра
-2. Выбор из готовых вариантов. Специализированные инструкции с нормой результата. Бухгалтер (выбор метода расчета), HR-специалист (подбор по регламенту)
-3. Оптимизация процессов. Ясно определенные, но гибкие процедуры. Менеджер проектов (оптимизация сроков), логист (выбор маршрута)
-4. Управление методами. Известно "что" делать, свобода в выборе "как". Team Lead (определение workflow), руководитель отдела (разработка KPI)
-5. Стратегическое планирование. Широкие рамки, самостоятельное определение приоритетов. Директор департамента (распределение бюджета), CIO (IT-стратегия)
-6. Видение организации. Свобода мышления обо всей компании. Зам. генерального директора (реструктуризация бизнес-направлений)
-7. Трансформация бизнеса. Переосмысление моделей работы. CEO (изменение бизнес-модели), основатель стартапа (выход на новые рынки)
-8. Экспертная автономия. Ограничения — только законы науки и общества. Научный руководитель R&amp;D (разработка новых технологий), отраслевой идеолог
-Хорошие ответы содержат конкретные требования к самостоятельности мышления:
-- "Работа строго по инструкциям, отклонения недопустимы"
-- "Выбор из нескольких утвержденных методов ведения учета"
-- "Оптимизация процессов доставки в рамках установленных стандартов"
-- "Самостоятельная разработка методик работы команды"
-- "Определение стратегии развития подразделения"
-- "Формирование видения развития всей компании"
-- "Кардинальное изменение бизнес-процессов организации"
-- "Создание новых отраслевых стандартов и технологий"
-Плохие ответы - слишком общие формулировки: "Творческое мышление", "Самостоятельность", "Аналитические способности", "Гибкость", "Инициативность", "Не знаю".
-ВАЖНО: Если пользователь задает вопрос по теме (например, "Что такое степень свободы мышления?", "Какие бывают уровни?", "Приведи примеры", "В чем разница между уровнями?", "Не понимаю вопрос"), то сначала дай краткий полезный ответ используя примеры выше, а потом попроси описать требования к самостоятельности мышления.
-ВАЖНО: Всегда отвечай от первого лица, как будто ты ведешь диалог с пользователем. Никогда не говори "пользователь", а обращайся напрямую "вы".
-Если из диалога понятно, какая степень свободы мышления требуется - напиши: "ПРИНЯТО"
-Если ответ все еще слишком общий или непонятный - напиши: "УТОЧНИ: " и дружелюбно попроси уточнить конкретные требования к самостоятельности и творческому мышлению.
-Если пользователь задал вопрос по теме - напиши: "УТОЧНИ: " затем ответь на вопрос и попроси описать требования.</v>
+      <c r="D12" s="6" t="s">
+        <v>259</v>
       </c>
       <c r="E12" s="33" t="s">
         <v>12</v>
@@ -2513,31 +2746,8 @@
         <v>187</v>
       </c>
       <c r="C13" s="33"/>
-      <c r="D13" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>Ты помогаешь проверить, дал ли пользователь конкретный ответ на вопрос "Опишите, насколько часто и в каких ситуациях от сотрудника требуются нестандартные подходы, создание новых методов работы или принципиально иных решений"
-{user_answer}
-Проанализируй диалог и определи, указал ли пользователь достаточно информации для классификации уровня креативности мышления.
-Существует 5 уровней креативности и оригинальности мышления:
-1. Стандартные задачи. Одинаковые вопросы с единственным правильным решением по инструкции. Обработка одинаковых запросов по скрипту, оператор call-центра, кассир
-2. Типовые задачи с выбором. Схожие вопросы, требующие выбора лучшего варианта из известных. Бухгалтер (выбор способа проводки), HR-специалист (подбор из базы кандидатов)
-3. Адаптивные решения. Различающиеся вопросы, требующие анализа и применения знаний для выбора решения. Менеджер проектов (адаптация методологии), аналитик (интерпретация данных)
-4. Инновационные решения. Вопросы, требующие разработки новых подходов через аналитическое и креативное мышление. Product Manager (создание новых функций), маркетолог (разработка кампаний)
-5. Прорывные решения. Неизведанные проблемы, требующие создания принципиально новых концепций и методик. R&amp;D руководитель (создание новых технологий), стратегический консультант (инновационные бизнес-модели)
-Хорошие ответы содержат конкретные требования к креативности:
-- "Работа строго по инструкции, креативность не требуется"
-- "Выбор из существующих проверенных методов решения"
-- "Адаптация известных подходов под конкретную ситуацию"
-- "Разработка новых креативных решений для нестандартных задач"
-- "Создание принципиально новых концепций и революционных идей"
-- "Генерация инновационных подходов к решению сложных проблем"
-- "Применение творческого мышления для оптимизации процессов"
-Плохие ответы - слишком общие формулировки: "Творческое мышление", "Креативность", "Нестандартные решения", "Инновации", "Оригинальность", "Не знаю".
-ВАЖНО: Если пользователь задает вопрос по теме (например, "Что такое креативность мышления?", "Какие бывают уровни?", "Приведи примеры", "В чем разница между уровнями?", "Не понимаю вопрос"), то сначала дай краткий полезный ответ используя примеры выше, а потом попроси описать требования к креативности и оригинальности мышления.
-ВАЖНО: Всегда отвечай от первого лица, как будто ты ведешь диалог с пользователем. Никогда не говори "пользователь", а обращайся напрямую "вы".
-Если из диалога понятно, какой уровень креативности требуется - напиши: "ПРИНЯТО"
-Если ответ все еще слишком общий или непонятный - напиши: "УТОЧНИ: " и дружелюбно попроси уточнить конкретные требования к креативности и оригинальности мышления.
-Если пользователь задал вопрос по теме - напиши: "УТОЧНИ: " затем ответь на вопрос и попроси описать требования.</v>
+      <c r="D13" s="6" t="s">
+        <v>261</v>
       </c>
       <c r="E13" s="33" t="s">
         <v>14</v>
@@ -2557,42 +2767,8 @@
       <c r="B14" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>Ты помогаешь проверить, дал ли пользователь конкретный ответ на вопрос "Можно ли оценить результат вашей деятельности в денежном выражении за год (например, через план или фактическую выручку)? Если да — приведите пример метрики и её ориентиры на год."?
-Например:
-Директор маркетинга - величина воздействия в год по торговой выручке 35 млн в год"
-{user_answer}
-Проанализируй диалог и определи, ответил ли пользователь на вопрос о возможности денежной оценки результатов деятельности.      
-Существует 5 категорий денежного воздействия:
-1. Неопределенная количественно - есть влияние, но сложно измерить точно
-2. Очень незначительная (3,3-33 млн) - небольшое денежное воздействие
-3. Незначительная (33-330 млн) - умеренное денежное воздействие 
-4. Средняя (330-3,3 млрд) - существенное денежное воздействие   
-5. Большая (3,3-33 млрд) - крупное денежное воздействие
-Хорошие ответы с конкретными метриками и цифрами:
-- "Да, через план продаж - 50 млн рублей в год"
-- "Директор маркетинга - величина воздействия в год по торговой выручке 35 млн в год"
-- "Менеджер по продажам - личный план 15 млн рублей"
-- "CFO - управление бюджетом компании 2 млрд рублей"
-- "Руководитель проекта - экономия затрат до 100 млн рублей"    
-ПРИНИМАЙ БЕЗ УТОЧНЕНИЙ для категории "Неопределенная количественно":
-- "Нет" / "Нельзя" / "Невозможно"
-- "Есть влияние, но сложно измерить"
-- "Результаты нельзя оценить в деньгах"
-- "Неопределенная количественно"
-- Любые ответы, указывающие на невозможность точной денежной оценки
-Плохие ответы (требуют уточнения):
-- Только "Да" без примера метрики и ориентиров
-- "Наверное можно" / "Зависит от ситуации" / "Не знаю"
-- Полностью не по теме
-ВАЖНО: Если пользователь четко указывает на невозможность денежной оценки - СРАЗУ пиши "ПРИНЯТО" без запроса уточнений.
-ВАЖНО: Если пользователь ответил только "Да", попроси привести конкретный пример метрики и ориентиры на год.
-ВАЖНО: Если пользователь задает вопросы по теме (например, "Что считается денежной оценкой?", "Приведи примеры метрик", "Как правильно измерить результат?"), то дай краткий полезный ответ используя примеры выше, а потом попроси дать развернутый ответ.     
-ВАЖНО: Всегда отвечай от первого лица, как будто ты ведешь диалог с пользователем. Никогда не говори "пользователь", а обращайся напрямую "вы".
-Если указана конкретная метрика с числовыми ориентирами ИЛИ четко указана невозможность оценки - напиши: "ПРИНЯТО"
-Если ответ неполный или слишком общий - напиши: "УТОЧНИ: " и дружелюбно попроси привести конкретный пример метрики с числовыми ориентирами на год.
-Если пользователь задал вопрос по теме - напиши: "УТОЧНИ: " затем ответь на вопрос и попроси описать возможность оценки.</v>
+      <c r="D14" s="6" t="s">
+        <v>262</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>16</v>
@@ -2611,30 +2787,8 @@
       <c r="B15" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="D15" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>Ты помогаешь проверить, дал ли пользователь конкретный ответ на вопрос "Опишите масштаб влияния этой должности в компании: какие области деятельности, процессы или результаты работы других сотрудников/подразделений зависят от решений и действий в этой роли, и как именно ваша работа влияет на смежные отделы или компанию в целом"
-{user_answer}
-Проанализируй диалог и определи, указал ли пользователь достаточно информации для классификации степени влияния на конечные результаты.
-Существует 4 уровня влияния на конечные результаты:
-1. Незначительное. Сосредоточены на предоставлении и обработке информации после произошедшего события, без влияния на исход событий. Оператор ввода данных, архивариус, статистик
-2. Содействующее. Предоставляют консультации и рекомендации, оказывая значительное влияние на принятие решений. Аналитик, консультант, экспертные роли
-3. Совместное. Партнерство и общая ответственность за результат без прямого контроля ресурсов. Координатор проектов, менеджер по работе с клиентами, специалист по развитию
-4. Прямой. Контроль за конечными результатами с прямым управлением ресурсами на определенном уровне организации. Руководитель отдела, директор, CEO
-Хорошие ответы содержат конкретные описания характера влияния:
-- "Обрабатываю данные и готовлю отчеты по уже произошедшим событиям"
-- "Я даю рекомендации и консультации, которые существенно влияют на принятие решений, но не управляю ресурсами напрямую"
-- "Работаю в команде, разделяю ответственность за результат, но без прямого контроля бюджета"
-- "Напрямую отвечаю за результаты отдела, управляю бюджетом и ресурсами"
-- "Предоставляю экспертные заключения, которые учитываются при принятии решений"
-- "Совместно с коллегами реализую проекты, общая ответственность за успех"
-- "Полностью контролирую процесс и результат в рамках своей зоны ответственности"
-Плохие ответы - слишком общие формулировки: "Влияю на результаты", "Принимаю решения", "Работаю с данными", "Управляю", "Контролирую", "Не знаю".
-ВАЖНО: Если пользователь задает вопрос по теме (например, "Что такое степень влияния?", "Какие бывают уровни?", "Приведи примеры", "В чем разница между уровнями?", "Не понимаю вопрос"), то сначала дай краткий полезный ответ используя примеры выше, а потом попроси описать характер влияния на результаты.
-ВАЖНО: Всегда отвечай от первого лица, как будто ты ведешь диалог с пользователем. Никогда не говори "пользователь", а обращайся напрямую "вы".
-Если из диалога понятно, какая степень влияния на конечные результаты - напиши: "ПРИНЯТО"
-Если ответ все еще слишком общий или непонятный - напиши: "УТОЧНИ: " и дружелюбно попроси уточнить характер влияния на конечные результаты.
-Если пользователь задал вопрос по теме - напиши: "УТОЧНИ: " затем ответь на вопрос и попроси описать влияние.</v>
+      <c r="D15" s="6" t="s">
+        <v>263</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>21</v>
@@ -2656,31 +2810,8 @@
       <c r="B16" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="D16" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>Ты помогаешь проверить, дал ли пользователь конкретный ответ на вопрос "Опишите масштаб влияния этой должности в компании: какие области деятельности, процессы или результаты работы других сотрудников/подразделений зависят от решений и действий в этой роли, и как именно ваша работа влияет на смежные отделы или компанию в целом"
-{user_answer}
-Проанализируй диалог и определи, указал ли пользователь достаточно информации для классификации степени влияния должности.
-Существует 6 уровней влияния должности:
-1. Предоставление разовых услуг для выполнения работы другими. Курьер, техподдержка разовых запросов, временный помощник
-2. Оказание услуг поддержки информационного или отчетного характера в пределах подразделения. Секретарь отдела, документооборот, внутренняя отчетность
-3. Выполнение процессов напрямую связано с ключевой цепочкой создания ценности бизнеса. Оказание вспомогательных услуг для нескольких подразделений. Специалист по продажам, IT-поддержка, межотдельская координация
-4. Оказание специализированных услуг аналитического и рекомендательного характера, консультации. Бизнес-аналитик, консультант, экспертные заключения
-5. Руководство повседневной деятельностью группы сотрудников или проектов, включая консультирование и разработку процедур. Руководитель отдела, менеджер проектов, team lead
-6. Обеспечение достижения результатов работы нескольких команд, занятых разнородной деятельностью или руководство разработкой программ которые влияют на деятельность всей компании. Директор департамента, топ-менеджер, стратегический руководитель
-Хорошие ответы содержат конкретные описания характера влияния и ответственности:
-- "Выполняю разовые поручения для поддержки работы коллег"
-- "Готовлю отчеты и веду документооборот внутри отдела"
-- "Работаю в ключевых бизнес-процессах, оказываю поддержку нескольким отделам"
-- "Провожу аналитику и даю рекомендации на основе данных"
-- "Я отвечаю за общее руководство отделом и выполнение задач в соответствии с операционным планом. Сам определяю порядок и сроки выполнения задач, координирую работу команды, контролирую ход реализации и при необходимости вношу корректировки в планы для достижения поставленных целей"
-- "Руковожу несколькими командами, разрабатываю программы для всей компании"
-Плохие ответы - слишком общие формулировки: "Влияю на результаты", "Выполняю задачи", "Работаю с людьми", "Управляю процессами", "Не знаю".
-ВАЖНО: Если пользователь задает вопрос по теме (например, "Что такое степень влияния должности?", "Какие бывают уровни?", "Приведи примеры", "В чем разница между уровнями?", "Не понимаю вопрос"), то сначала дай краткий полезный ответ используя примеры выше, а потом попроси описать характер влияния и ответственности.
-ВАЖНО: Всегда отвечай от первого лица, как будто ты ведешь диалог с пользователем. Никогда не говори "пользователь", а обращайся напрямую "вы".
-Если из диалога понятно, какая степень влияния должности - напиши: "ПРИНЯТО"
-Если ответ все еще слишком общий или непонятный - напиши: "УТОЧНИ: " и дружелюбно попроси уточнить характер влияния и ответственности должности.
-Если пользователь задал вопрос по теме - напиши: "УТОЧНИ: " затем ответь на вопрос и попроси описать влияние.</v>
+      <c r="D16" s="6" t="s">
+        <v>264</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>22</v>
@@ -2702,35 +2833,8 @@
       <c r="B17" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="D17" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>Ты помогаешь проверить, дал ли пользователь конкретный ответ на вопрос "Опишите степень полномочий при принятии решений для этой должности: какие типы решений могут приниматься самостоятельно, какие требуют согласования, в рамках каких бюджетных или ресурсных ограничений происходит работа и как организован контроль за принимаемыми решениями"
-{user_answer}
-Проанализируй диалог и определи, указал ли пользователь достаточно информации для классификации степени полномочий и самостоятельности.
-Существует 8 уровней полномочий при принятии решений:
-1. Постоянный контроль. Подробные инструкции, выполнение заданий под постоянным руководством. Оператор call-центра, кассир, курьер
-2. Ограничены общими рабочими инструкциями и контролем деятельности и результатов. Могут изменять последовательность действий процедуры. Специалист с небольшим опытом, офис-администратор
-3. Частично или полностью ограничены общими инструкциями. Возможно изменение приоритетов задач по согласованию. Опытный специалист, координатор
-4. Изменяют практики и процедуры, определяют собственные приоритеты. Ведущий специалист, старший аналитик
-5. Общее руководство, выполнение операционных задач согласно операционному плану, сам определяет как и когда. Руководитель отдела, менеджер проектов
-6. Отвечает за конечные результаты, широкие полномочия. Контроль 3-5 лет. Директор департамента, региональный менеджер
-7. Контроль результатов со стороны правления, широко определенные политики, стратегические задачи. Контроль от 5 лет. Топ-менеджер, вице-президент
-8. Полномочия ограничены общими тенденциями бизнеса. CEO, председатель правления
-Хорошие ответы содержат конкретные описания уровня контроля и самостоятельности:
-- "Работаю строго по инструкциям, каждое действие контролируется"
-- "Могу менять порядок выполнения задач, но в рамках общих правил"
-- "У меня частичная самостоятельность. Могу менять приоритеты задач после согласования. Основные инструкции есть, но по обычным вопросам решаю сам"
-- "Самостоятельно определяю методы работы и приоритеты"
-- "Руковожу отделом, сам планирую и контролирую выполнение задач"
-- "Полная ответственность за результаты, отчетность раз в квартал"
-- "Стратегические решения, контроль только по итогам года"
-- "Принимаю любые решения в рамках развития бизнеса"
-Плохие ответы - слишком общие формулировки: "Есть полномочия", "Принимаю решения", "Работаю самостоятельно", "Контролируют иногда", "Не знаю".
-ВАЖНО: Если пользователь задает вопрос по теме (например, "Что такое степень полномочий?", "Какие бывают уровни контроля?", "Приведи примеры", "В чем разница между уровнями?", "Не понимаю вопрос"), то сначала дай краткий полезный ответ используя примеры выше, а потом попроси описать конкретные особенности контроля и самостоятельности.
-ВАЖНО: Всегда отвечай от первого лица, как будто ты ведешь диалог с пользователем. Никогда не говори "пользователь", а обращайся напрямую "вы".
-Если из диалога понятно, какая степень полномочий при принятии решений - напиши: "ПРИНЯТО"
-Если ответ все еще слишком общий или непонятный - напиши: "УТОЧНИ: " и дружелюбно попроси уточнить особенности контроля и уровень самостоятельности.
-Если пользователь задал вопрос по теме - напиши: "УТОЧНИ: " затем ответь на вопрос и попроси описать полномочия.</v>
+      <c r="D17" s="6" t="s">
+        <v>265</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>24</v>
@@ -2765,41 +2869,8 @@
       <c r="B19" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>Ты помогаешь проверить, дал ли пользователь конкретный ответ на вопрос "Укажите функционал должности"
-{user_answer}
-Проанализируй диалог и определи, указал ли пользователь конкретный функционал должности.
-Хорошие ответы содержат описание конкретных функций (от 5 до 20):
-Пример качественного ответа:
-- "Разработка и поддержка проектной документации на основе стандартов PMBOK, PRINCE2 или Agile — включая устав проекта, план управления проектом, расписания (Gantt charts), реестры рисков и изменений"
-- "Планирование и организация работ через системы управления проектами (например, Microsoft Project, Jira, Asana или Trello)"
-- "Координация межфункциональной команды и управление задачами с использованием методологий SCRUM или Kanban"
-- "Управление коммуникациями с заказчиками, внутренними и внешними заинтересованными сторонами"
-- "Анализ и управление рисками проекта через методы качественного и количественного анализа"
-Другие примеры хороших ответов:
-- "Ведение клиентской базы и обработка заявок в CRM системе"
-- "Проведение переговоров с поставщиками и заключение договоров"
-- "Анализ финансовых показателей и подготовка отчетности"
-- "Разработка технических требований и координация с разработчиками"
-- "Обучение новых сотрудников и ведение документации процессов"
-Принимай ответы, если указаны конкретные функции и задачи, даже если их меньше 5 или формулировки не идеальные.
-Плохие ответы - слишком общие формулировки:
-- "Управляю процессами"
-- "Работаю с клиентами" 
-- "Выполняю задачи руководства"
-- "Анализирую данные"
-- "Координирую работу"
-- "Не знаю"
-ВАЖНО: Если пользователь дал слишком общий ответ, помоги ему, задав вопросы:
-- "Что именно вы делаете, чтобы получить конечный результат работы?"
-- "Какие конкретные задачи вы выполняете ежедневно/еженедельно?"
-- "Кому и в каком виде вы предоставляете результаты своей работы?"
-ВАЖНО: Если пользователь задает вопросы по теме (например, "Что такое функционал должности?", "Приведи примеры", "Как правильно описать функции?"), то дай краткий полезный ответ используя примеры выше, а потом попроси описать конкретные функции.
-ВАЖНО: Всегда отвечай от первого лица, как будто ты ведешь диалог с пользователем. Никогда не говори "пользователь", а обращайся напрямую "вы".
-Если указаны конкретные функции и задачи должности - напиши: "ПРИНЯТО"
-Если ответ слишком общий - напиши: "УТОЧНИ: " и дружелюбно попроси описать конкретные функции, используя вопросы выше.
-Если пользователь задал вопрос по теме - напиши: "УТОЧНИ: " затем ответь на вопрос и попроси описать функционал.</v>
+      <c r="D19" s="6" t="s">
+        <v>266</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>217</v>
@@ -8329,586 +8400,586 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="C1" s="10" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="41">
+      <c r="A2" s="10">
         <v>8</v>
       </c>
-      <c r="B2" s="41">
+      <c r="B2" s="10">
         <v>1</v>
       </c>
-      <c r="C2" s="42" t="s">
+      <c r="C2" s="41" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="41">
+      <c r="A3" s="10">
         <v>8</v>
       </c>
-      <c r="B3" s="41">
+      <c r="B3" s="10">
         <v>2</v>
       </c>
-      <c r="C3" s="42" t="s">
+      <c r="C3" s="41" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="41">
+      <c r="A4" s="10">
         <v>8</v>
       </c>
-      <c r="B4" s="41">
+      <c r="B4" s="10">
         <v>3</v>
       </c>
-      <c r="C4" s="42" t="s">
+      <c r="C4" s="41" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="41">
+      <c r="A5" s="10">
         <v>9</v>
       </c>
-      <c r="B5" s="41">
+      <c r="B5" s="10">
         <v>1</v>
       </c>
-      <c r="C5" s="42" t="s">
+      <c r="C5" s="41" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="41">
+      <c r="A6" s="10">
         <v>9</v>
       </c>
-      <c r="B6" s="41">
+      <c r="B6" s="10">
         <v>2</v>
       </c>
-      <c r="C6" s="42" t="s">
+      <c r="C6" s="41" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="41">
+      <c r="A7" s="10">
         <v>9</v>
       </c>
-      <c r="B7" s="41">
+      <c r="B7" s="10">
         <v>3</v>
       </c>
-      <c r="C7" s="42" t="s">
+      <c r="C7" s="41" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="41">
+      <c r="A8" s="10">
         <v>9</v>
       </c>
-      <c r="B8" s="41">
+      <c r="B8" s="10">
         <v>4</v>
       </c>
-      <c r="C8" s="42" t="s">
+      <c r="C8" s="41" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="41">
+      <c r="A9" s="10">
         <v>9</v>
       </c>
-      <c r="B9" s="41">
+      <c r="B9" s="10">
         <v>5</v>
       </c>
-      <c r="C9" s="42" t="s">
+      <c r="C9" s="41" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" s="41">
+      <c r="A10" s="10">
         <v>10</v>
       </c>
-      <c r="B10" s="41">
+      <c r="B10" s="10">
         <v>1</v>
       </c>
-      <c r="C10" s="42" t="s">
+      <c r="C10" s="41" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" s="41">
+      <c r="A11" s="10">
         <v>10</v>
       </c>
-      <c r="B11" s="41">
+      <c r="B11" s="10">
         <v>2</v>
       </c>
-      <c r="C11" s="42" t="s">
+      <c r="C11" s="41" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" s="41">
+      <c r="A12" s="10">
         <v>10</v>
       </c>
-      <c r="B12" s="41">
+      <c r="B12" s="10">
         <v>3</v>
       </c>
-      <c r="C12" s="42" t="s">
+      <c r="C12" s="41" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" s="41">
+      <c r="A13" s="10">
         <v>10</v>
       </c>
-      <c r="B13" s="41">
+      <c r="B13" s="10">
         <v>4</v>
       </c>
-      <c r="C13" s="42" t="s">
+      <c r="C13" s="41" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" s="41">
+      <c r="A14" s="10">
         <v>10</v>
       </c>
-      <c r="B14" s="41">
+      <c r="B14" s="10">
         <v>5</v>
       </c>
-      <c r="C14" s="42" t="s">
+      <c r="C14" s="41" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" s="41">
+      <c r="A15" s="10">
         <v>10</v>
       </c>
-      <c r="B15" s="41">
+      <c r="B15" s="10">
         <v>6</v>
       </c>
-      <c r="C15" s="42" t="s">
+      <c r="C15" s="41" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" s="41">
+      <c r="A16" s="10">
         <v>10</v>
       </c>
-      <c r="B16" s="41">
+      <c r="B16" s="10">
         <v>7</v>
       </c>
-      <c r="C16" s="42" t="s">
+      <c r="C16" s="41" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" s="41">
+      <c r="A17" s="10">
         <v>10</v>
       </c>
-      <c r="B17" s="41">
+      <c r="B17" s="10">
         <v>8</v>
       </c>
-      <c r="C17" s="42" t="s">
+      <c r="C17" s="41" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" s="41">
+      <c r="A18" s="10">
         <v>11</v>
       </c>
-      <c r="B18" s="41">
+      <c r="B18" s="10">
         <v>1</v>
       </c>
-      <c r="C18" s="42" t="s">
+      <c r="C18" s="41" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19" s="41">
+      <c r="A19" s="10">
         <v>11</v>
       </c>
-      <c r="B19" s="41">
+      <c r="B19" s="10">
         <v>2</v>
       </c>
-      <c r="C19" s="42" t="s">
+      <c r="C19" s="41" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" s="41">
+      <c r="A20" s="10">
         <v>11</v>
       </c>
-      <c r="B20" s="41">
+      <c r="B20" s="10">
         <v>3</v>
       </c>
-      <c r="C20" s="42" t="s">
+      <c r="C20" s="41" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21" s="41">
+      <c r="A21" s="10">
         <v>11</v>
       </c>
-      <c r="B21" s="41">
+      <c r="B21" s="10">
         <v>4</v>
       </c>
-      <c r="C21" s="42" t="s">
+      <c r="C21" s="41" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22" s="41">
+      <c r="A22" s="10">
         <v>11</v>
       </c>
-      <c r="B22" s="41">
+      <c r="B22" s="10">
         <v>5</v>
       </c>
-      <c r="C22" s="42" t="s">
+      <c r="C22" s="41" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A23" s="41">
+      <c r="A23" s="10">
         <v>11</v>
       </c>
-      <c r="B23" s="41">
+      <c r="B23" s="10">
         <v>6</v>
       </c>
-      <c r="C23" s="42" t="s">
+      <c r="C23" s="41" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A24" s="41">
+      <c r="A24" s="10">
         <v>11</v>
       </c>
-      <c r="B24" s="41">
+      <c r="B24" s="10">
         <v>7</v>
       </c>
-      <c r="C24" s="42" t="s">
+      <c r="C24" s="41" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A25" s="41">
+      <c r="A25" s="10">
         <v>11</v>
       </c>
-      <c r="B25" s="41">
+      <c r="B25" s="10">
         <v>8</v>
       </c>
-      <c r="C25" s="42" t="s">
+      <c r="C25" s="41" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A26" s="41">
+      <c r="A26" s="10">
         <v>12</v>
       </c>
-      <c r="B26" s="41">
+      <c r="B26" s="10">
         <v>1</v>
       </c>
-      <c r="C26" s="42" t="s">
+      <c r="C26" s="41" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A27" s="41">
+      <c r="A27" s="10">
         <v>12</v>
       </c>
-      <c r="B27" s="41">
+      <c r="B27" s="10">
         <v>2</v>
       </c>
-      <c r="C27" s="42" t="s">
+      <c r="C27" s="41" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A28" s="41">
+      <c r="A28" s="10">
         <v>12</v>
       </c>
-      <c r="B28" s="41">
+      <c r="B28" s="10">
         <v>3</v>
       </c>
-      <c r="C28" s="42" t="s">
+      <c r="C28" s="41" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A29" s="41">
+      <c r="A29" s="10">
         <v>12</v>
       </c>
-      <c r="B29" s="41">
+      <c r="B29" s="10">
         <v>4</v>
       </c>
-      <c r="C29" s="42" t="s">
+      <c r="C29" s="41" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A30" s="41">
+      <c r="A30" s="10">
         <v>12</v>
       </c>
-      <c r="B30" s="41">
+      <c r="B30" s="10">
         <v>5</v>
       </c>
-      <c r="C30" s="42" t="s">
+      <c r="C30" s="41" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A31" s="41">
+      <c r="A31" s="10">
         <v>13</v>
       </c>
-      <c r="B31" s="41">
+      <c r="B31" s="10">
         <v>1</v>
       </c>
-      <c r="C31" s="42" t="s">
+      <c r="C31" s="41" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A32" s="41">
+      <c r="A32" s="10">
         <v>13</v>
       </c>
-      <c r="B32" s="41">
+      <c r="B32" s="10">
         <v>2</v>
       </c>
-      <c r="C32" s="42" t="s">
+      <c r="C32" s="41" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A33" s="41">
+      <c r="A33" s="10">
         <v>13</v>
       </c>
-      <c r="B33" s="41">
+      <c r="B33" s="10">
         <v>3</v>
       </c>
-      <c r="C33" s="42" t="s">
+      <c r="C33" s="41" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A34" s="41">
+      <c r="A34" s="10">
         <v>13</v>
       </c>
-      <c r="B34" s="41">
+      <c r="B34" s="10">
         <v>4</v>
       </c>
-      <c r="C34" s="42" t="s">
+      <c r="C34" s="41" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A35" s="41">
+      <c r="A35" s="10">
         <v>13</v>
       </c>
-      <c r="B35" s="41">
+      <c r="B35" s="10">
         <v>5</v>
       </c>
-      <c r="C35" s="42" t="s">
+      <c r="C35" s="41" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A36" s="41">
+      <c r="A36" s="10">
         <v>14</v>
       </c>
-      <c r="B36" s="41">
+      <c r="B36" s="10">
         <v>1</v>
       </c>
-      <c r="C36" s="42" t="s">
+      <c r="C36" s="41" t="s">
         <v>230</v>
       </c>
       <c r="I36" s="3"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A37" s="41">
+      <c r="A37" s="10">
         <v>14</v>
       </c>
-      <c r="B37" s="41">
+      <c r="B37" s="10">
         <v>2</v>
       </c>
-      <c r="C37" s="42" t="s">
+      <c r="C37" s="41" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A38" s="41">
+      <c r="A38" s="10">
         <v>14</v>
       </c>
-      <c r="B38" s="41">
+      <c r="B38" s="10">
         <v>3</v>
       </c>
-      <c r="C38" s="42" t="s">
+      <c r="C38" s="41" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A39" s="41">
+      <c r="A39" s="10">
         <v>14</v>
       </c>
-      <c r="B39" s="41">
+      <c r="B39" s="10">
         <v>4</v>
       </c>
-      <c r="C39" s="42" t="s">
+      <c r="C39" s="41" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A40" s="41">
+      <c r="A40" s="10">
         <v>15</v>
       </c>
-      <c r="B40" s="41">
+      <c r="B40" s="10">
         <v>1</v>
       </c>
-      <c r="C40" s="43" t="s">
+      <c r="C40" s="42" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A41" s="41">
+      <c r="A41" s="10">
         <v>15</v>
       </c>
-      <c r="B41" s="41">
+      <c r="B41" s="10">
         <v>2</v>
       </c>
-      <c r="C41" s="43" t="s">
+      <c r="C41" s="42" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A42" s="41">
+      <c r="A42" s="10">
         <v>15</v>
       </c>
-      <c r="B42" s="41">
+      <c r="B42" s="10">
         <v>3</v>
       </c>
-      <c r="C42" s="43" t="s">
+      <c r="C42" s="42" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A43" s="41">
+      <c r="A43" s="10">
         <v>15</v>
       </c>
-      <c r="B43" s="41">
+      <c r="B43" s="10">
         <v>4</v>
       </c>
-      <c r="C43" s="43" t="s">
+      <c r="C43" s="42" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A44" s="41">
+      <c r="A44" s="10">
         <v>15</v>
       </c>
-      <c r="B44" s="41">
+      <c r="B44" s="10">
         <v>5</v>
       </c>
-      <c r="C44" s="43" t="s">
+      <c r="C44" s="42" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A45" s="41">
+      <c r="A45" s="10">
         <v>15</v>
       </c>
-      <c r="B45" s="41">
+      <c r="B45" s="10">
         <v>6</v>
       </c>
-      <c r="C45" s="43" t="s">
+      <c r="C45" s="42" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A46" s="41">
+      <c r="A46" s="10">
         <v>16</v>
       </c>
-      <c r="B46" s="41">
+      <c r="B46" s="10">
         <v>1</v>
       </c>
-      <c r="C46" s="42" t="s">
+      <c r="C46" s="41" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A47" s="41">
+      <c r="A47" s="10">
         <v>16</v>
       </c>
-      <c r="B47" s="41">
+      <c r="B47" s="10">
         <v>2</v>
       </c>
-      <c r="C47" s="42" t="s">
+      <c r="C47" s="41" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A48" s="41">
+      <c r="A48" s="10">
         <v>16</v>
       </c>
-      <c r="B48" s="41">
+      <c r="B48" s="10">
         <v>3</v>
       </c>
-      <c r="C48" s="42" t="s">
+      <c r="C48" s="41" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A49" s="41">
+      <c r="A49" s="10">
         <v>16</v>
       </c>
-      <c r="B49" s="41">
+      <c r="B49" s="10">
         <v>4</v>
       </c>
-      <c r="C49" s="42" t="s">
+      <c r="C49" s="41" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A50" s="41">
+      <c r="A50" s="10">
         <v>16</v>
       </c>
-      <c r="B50" s="41">
+      <c r="B50" s="10">
         <v>5</v>
       </c>
-      <c r="C50" s="42" t="s">
+      <c r="C50" s="41" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A51" s="41">
+      <c r="A51" s="10">
         <v>16</v>
       </c>
-      <c r="B51" s="41">
+      <c r="B51" s="10">
         <v>6</v>
       </c>
-      <c r="C51" s="42" t="s">
+      <c r="C51" s="41" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A52" s="41">
+      <c r="A52" s="10">
         <v>16</v>
       </c>
-      <c r="B52" s="41">
+      <c r="B52" s="10">
         <v>7</v>
       </c>
-      <c r="C52" s="42" t="s">
+      <c r="C52" s="41" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A53" s="41">
+      <c r="A53" s="10">
         <v>16</v>
       </c>
-      <c r="B53" s="41">
+      <c r="B53" s="10">
         <v>8</v>
       </c>
-      <c r="C53" s="42" t="s">
+      <c r="C53" s="41" t="s">
         <v>247</v>
       </c>
     </row>

--- a/data/hag.xlsx
+++ b/data/hag.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NDSko\Desktop\DevAI\HayAutoGrade\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9385A174-D7AA-4B7E-AFC4-9068BB445537}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F098ED02-11DA-4457-AB84-C4344057C682}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="563" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -759,9 +759,6 @@
   </si>
   <si>
     <t>варианты ответов на 12 вопрос</t>
-  </si>
-  <si>
-    <t>Укажите точное название должности, которую мы оцениваем</t>
   </si>
   <si>
     <t>Сформулируйте главную цель этой роли. Какую основную ценность она создает для организации?</t>
@@ -1837,6 +1834,9 @@
 Отвечайте, пожалуйста, исходя из реальных требований и сложности роли, а не из качеств конкретного сотрудника
 В примерах к каждому вопросу приведены ориентиры для одной условной должности — «Менеджер по продажам». Используйте их как образец стиля ответа, а не как точный шаблон. Ваша задача — описать именно ту роль, которую вы оцениваете</t>
   </si>
+  <si>
+    <t>Выберите роль для оценки в структуре компании</t>
+  </si>
 </sst>
 </file>
 
@@ -2518,7 +2518,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2553,10 +2553,10 @@
         <v>25</v>
       </c>
       <c r="G1" s="39" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
@@ -2564,16 +2564,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>176</v>
+        <v>269</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="123.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2581,16 +2581,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="131" customHeight="1" x14ac:dyDescent="0.35">
@@ -2598,16 +2598,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="108.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2615,16 +2615,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>243</v>
-      </c>
       <c r="G5" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="130.5" x14ac:dyDescent="0.35">
@@ -2632,14 +2632,14 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="6"/>
       <c r="G6" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H6" s="6"/>
     </row>
@@ -2648,16 +2648,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>246</v>
-      </c>
       <c r="G7" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
@@ -2665,16 +2665,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>248</v>
-      </c>
       <c r="G8" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
@@ -2682,19 +2682,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>249</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>250</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
@@ -2702,19 +2702,19 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>251</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>252</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
@@ -2722,19 +2722,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>253</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>254</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>14</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="90.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2742,21 +2742,21 @@
         <v>11</v>
       </c>
       <c r="B12" s="33" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C12" s="33"/>
       <c r="D12" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E12" s="33" t="s">
         <v>9</v>
       </c>
       <c r="F12" s="34"/>
       <c r="G12" s="34" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H12" s="33" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="110.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2764,21 +2764,21 @@
         <v>12</v>
       </c>
       <c r="B13" s="33" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C13" s="33"/>
       <c r="D13" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E13" s="33" t="s">
         <v>11</v>
       </c>
       <c r="F13" s="34"/>
       <c r="G13" s="34" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H13" s="33" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
@@ -2786,19 +2786,19 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="D14" s="6" t="s">
         <v>259</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>260</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
@@ -2806,10 +2806,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="D15" s="6" t="s">
         <v>261</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>262</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>18</v>
@@ -2818,10 +2818,10 @@
         <v>23</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
@@ -2829,10 +2829,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>19</v>
@@ -2841,10 +2841,10 @@
         <v>24</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="343.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2852,19 +2852,19 @@
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="D17" s="6" t="s">
         <v>264</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>265</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>21</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="58" x14ac:dyDescent="0.35">
@@ -2872,14 +2872,14 @@
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D18" s="6"/>
       <c r="G18" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H18" s="3"/>
     </row>
@@ -2888,16 +2888,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="D19" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="D19" s="6" t="s">
-        <v>268</v>
-      </c>
       <c r="G19" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
@@ -19830,7 +19830,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="116" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
   </sheetData>
@@ -19858,13 +19858,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -20194,7 +20194,7 @@
         <v>1</v>
       </c>
       <c r="C31" s="41" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
@@ -20205,7 +20205,7 @@
         <v>2</v>
       </c>
       <c r="C32" s="41" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.35">
@@ -20216,7 +20216,7 @@
         <v>3</v>
       </c>
       <c r="C33" s="41" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.35">
@@ -20227,7 +20227,7 @@
         <v>4</v>
       </c>
       <c r="C34" s="41" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.35">
@@ -20238,7 +20238,7 @@
         <v>5</v>
       </c>
       <c r="C35" s="41" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.35">
@@ -20249,7 +20249,7 @@
         <v>1</v>
       </c>
       <c r="C36" s="41" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I36" s="3"/>
     </row>
@@ -20261,7 +20261,7 @@
         <v>2</v>
       </c>
       <c r="C37" s="41" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.35">
@@ -20272,7 +20272,7 @@
         <v>3</v>
       </c>
       <c r="C38" s="41" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.35">
@@ -20283,7 +20283,7 @@
         <v>4</v>
       </c>
       <c r="C39" s="41" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.35">
@@ -20294,7 +20294,7 @@
         <v>1</v>
       </c>
       <c r="C40" s="42" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.35">
@@ -20305,7 +20305,7 @@
         <v>2</v>
       </c>
       <c r="C41" s="42" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.35">
@@ -20316,7 +20316,7 @@
         <v>3</v>
       </c>
       <c r="C42" s="42" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.35">
@@ -20327,7 +20327,7 @@
         <v>4</v>
       </c>
       <c r="C43" s="42" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.35">
@@ -20338,7 +20338,7 @@
         <v>5</v>
       </c>
       <c r="C44" s="42" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.35">
@@ -20349,7 +20349,7 @@
         <v>6</v>
       </c>
       <c r="C45" s="42" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.35">
@@ -20360,7 +20360,7 @@
         <v>1</v>
       </c>
       <c r="C46" s="41" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.35">
@@ -20371,7 +20371,7 @@
         <v>2</v>
       </c>
       <c r="C47" s="41" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.35">
@@ -20382,7 +20382,7 @@
         <v>3</v>
       </c>
       <c r="C48" s="41" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
@@ -20393,7 +20393,7 @@
         <v>4</v>
       </c>
       <c r="C49" s="41" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
@@ -20404,7 +20404,7 @@
         <v>5</v>
       </c>
       <c r="C50" s="41" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
@@ -20415,7 +20415,7 @@
         <v>6</v>
       </c>
       <c r="C51" s="41" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
@@ -20426,7 +20426,7 @@
         <v>7</v>
       </c>
       <c r="C52" s="41" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
@@ -20437,7 +20437,7 @@
         <v>8</v>
       </c>
       <c r="C53" s="41" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>

--- a/data/hag.xlsx
+++ b/data/hag.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NDSko\Desktop\DevAI\HayAutoGrade\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F098ED02-11DA-4457-AB84-C4344057C682}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F4D402B-2FEE-4568-8791-3A2DF8AD7F89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="563" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="563" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="questions" sheetId="1" r:id="rId1"/>
@@ -1829,13 +1829,12 @@
 Например: "Функционал - это конкретные задачи, которые вы выполняете. Например: 'ведение CRM', 'переговоры с клиентами', 'подготовка отчетов'. Опишите ваши основные функции."</t>
   </si>
   <si>
-    <t>Вводное пояснение для пользователя:
-Добрый день! Этот опрос поможет оценить уровень позиции в вашей команде по международной методике HAY Group. 
+    <t>Выберите роль для оценки в структуре компании</t>
+  </si>
+  <si>
+    <t>Добрый день! Этот опрос поможет оценить уровень позиции в вашей команде по международной методике HAY Group. 
 Отвечайте, пожалуйста, исходя из реальных требований и сложности роли, а не из качеств конкретного сотрудника
 В примерах к каждому вопросу приведены ориентиры для одной условной должности — «Менеджер по продажам». Используйте их как образец стиля ответа, а не как точный шаблон. Ваша задача — описать именно ту роль, которую вы оцениваете</t>
-  </si>
-  <si>
-    <t>Выберите роль для оценки в структуре компании</t>
   </si>
 </sst>
 </file>
@@ -2517,7 +2516,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -2564,7 +2563,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>238</v>
@@ -19819,8 +19818,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33CFE3D3-6274-4674-A955-E380785831A1}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -19828,9 +19827,9 @@
     <col min="1" max="1" width="96.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="116" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
   </sheetData>

--- a/data/hag.xlsx
+++ b/data/hag.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NDSko\Desktop\DevAI\HayAutoGrade\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F4D402B-2FEE-4568-8791-3A2DF8AD7F89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9491442-6720-4061-A2E0-DAC76AFA09D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="563" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="563" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="questions" sheetId="1" r:id="rId1"/>
@@ -1238,51 +1238,6 @@
     <t>номер вопроса</t>
   </si>
   <si>
-    <t>1. Неопределенно количественно</t>
-  </si>
-  <si>
-    <t>2. Очень незначительная</t>
-  </si>
-  <si>
-    <t>3. Незначительная</t>
-  </si>
-  <si>
-    <t>4. Средняя</t>
-  </si>
-  <si>
-    <t>5. Большая</t>
-  </si>
-  <si>
-    <t>1. Незначительное</t>
-  </si>
-  <si>
-    <t>2. Содействующее</t>
-  </si>
-  <si>
-    <t>3. Совместное</t>
-  </si>
-  <si>
-    <t>4. Прямое/Основное</t>
-  </si>
-  <si>
-    <t>1. Вспомогательное</t>
-  </si>
-  <si>
-    <t>2.  Поддерживающее</t>
-  </si>
-  <si>
-    <t>3. Операционное</t>
-  </si>
-  <si>
-    <t>4. Аналитическое</t>
-  </si>
-  <si>
-    <t>5. Направляющее</t>
-  </si>
-  <si>
-    <t>6. Воздействующее</t>
-  </si>
-  <si>
     <t>А. Строго контролируемая</t>
   </si>
   <si>
@@ -1835,6 +1790,51 @@
     <t>Добрый день! Этот опрос поможет оценить уровень позиции в вашей команде по международной методике HAY Group. 
 Отвечайте, пожалуйста, исходя из реальных требований и сложности роли, а не из качеств конкретного сотрудника
 В примерах к каждому вопросу приведены ориентиры для одной условной должности — «Менеджер по продажам». Используйте их как образец стиля ответа, а не как точный шаблон. Ваша задача — описать именно ту роль, которую вы оцениваете</t>
+  </si>
+  <si>
+    <t>Неопределенно количественно</t>
+  </si>
+  <si>
+    <t>Очень незначительная</t>
+  </si>
+  <si>
+    <t>Незначительная</t>
+  </si>
+  <si>
+    <t>Средняя</t>
+  </si>
+  <si>
+    <t>Большая</t>
+  </si>
+  <si>
+    <t>R. Незначительное</t>
+  </si>
+  <si>
+    <t>С. Содействующее</t>
+  </si>
+  <si>
+    <t>S. Совместное</t>
+  </si>
+  <si>
+    <t>P. Основное</t>
+  </si>
+  <si>
+    <t>I. Вспомогательное</t>
+  </si>
+  <si>
+    <t>II. Поддерживающее</t>
+  </si>
+  <si>
+    <t>III. Операционное</t>
+  </si>
+  <si>
+    <t>IV. Аналитическое</t>
+  </si>
+  <si>
+    <t>V. Направляющее</t>
+  </si>
+  <si>
+    <t>VI. Воздействующее</t>
   </si>
 </sst>
 </file>
@@ -2555,7 +2555,7 @@
         <v>194</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
@@ -2563,10 +2563,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>207</v>
@@ -2583,7 +2583,7 @@
         <v>176</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>208</v>
@@ -2600,7 +2600,7 @@
         <v>177</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>209</v>
@@ -2614,10 +2614,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>210</v>
@@ -2631,7 +2631,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>6</v>
@@ -2647,10 +2647,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>196</v>
@@ -2664,10 +2664,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>197</v>
@@ -2681,10 +2681,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>8</v>
@@ -2701,10 +2701,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>16</v>
@@ -2721,10 +2721,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>14</v>
@@ -2741,11 +2741,11 @@
         <v>11</v>
       </c>
       <c r="B12" s="33" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="C12" s="33"/>
       <c r="D12" s="6" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c r="E12" s="33" t="s">
         <v>9</v>
@@ -2763,11 +2763,11 @@
         <v>12</v>
       </c>
       <c r="B13" s="33" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="C13" s="33"/>
       <c r="D13" s="6" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="E13" s="33" t="s">
         <v>11</v>
@@ -2785,10 +2785,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>13</v>
@@ -2805,10 +2805,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>18</v>
@@ -2828,10 +2828,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>19</v>
@@ -2851,10 +2851,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>21</v>
@@ -2871,7 +2871,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>22</v>
@@ -2887,10 +2887,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>204</v>
@@ -19818,7 +19818,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33CFE3D3-6274-4674-A955-E380785831A1}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:A4"/>
     </sheetView>
   </sheetViews>
@@ -19829,7 +19829,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
     </row>
   </sheetData>
@@ -19841,8 +19841,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C49D5B3B-4CF0-40E5-A45D-13ED7B1921AB}">
   <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:B7"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection sqref="A1:C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -19860,10 +19860,10 @@
         <v>211</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -20193,7 +20193,7 @@
         <v>1</v>
       </c>
       <c r="C31" s="41" t="s">
-        <v>212</v>
+        <v>255</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
@@ -20204,7 +20204,7 @@
         <v>2</v>
       </c>
       <c r="C32" s="41" t="s">
-        <v>213</v>
+        <v>256</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.35">
@@ -20215,7 +20215,7 @@
         <v>3</v>
       </c>
       <c r="C33" s="41" t="s">
-        <v>214</v>
+        <v>257</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.35">
@@ -20226,7 +20226,7 @@
         <v>4</v>
       </c>
       <c r="C34" s="41" t="s">
-        <v>215</v>
+        <v>258</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.35">
@@ -20237,7 +20237,7 @@
         <v>5</v>
       </c>
       <c r="C35" s="41" t="s">
-        <v>216</v>
+        <v>259</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.35">
@@ -20248,7 +20248,7 @@
         <v>1</v>
       </c>
       <c r="C36" s="41" t="s">
-        <v>217</v>
+        <v>260</v>
       </c>
       <c r="I36" s="3"/>
     </row>
@@ -20260,7 +20260,7 @@
         <v>2</v>
       </c>
       <c r="C37" s="41" t="s">
-        <v>218</v>
+        <v>261</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.35">
@@ -20271,7 +20271,7 @@
         <v>3</v>
       </c>
       <c r="C38" s="41" t="s">
-        <v>219</v>
+        <v>262</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.35">
@@ -20282,7 +20282,7 @@
         <v>4</v>
       </c>
       <c r="C39" s="41" t="s">
-        <v>220</v>
+        <v>263</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.35">
@@ -20293,7 +20293,7 @@
         <v>1</v>
       </c>
       <c r="C40" s="42" t="s">
-        <v>221</v>
+        <v>264</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.35">
@@ -20304,7 +20304,7 @@
         <v>2</v>
       </c>
       <c r="C41" s="42" t="s">
-        <v>222</v>
+        <v>265</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.35">
@@ -20315,7 +20315,7 @@
         <v>3</v>
       </c>
       <c r="C42" s="42" t="s">
-        <v>223</v>
+        <v>266</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.35">
@@ -20326,7 +20326,7 @@
         <v>4</v>
       </c>
       <c r="C43" s="42" t="s">
-        <v>224</v>
+        <v>267</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.35">
@@ -20337,7 +20337,7 @@
         <v>5</v>
       </c>
       <c r="C44" s="42" t="s">
-        <v>225</v>
+        <v>268</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.35">
@@ -20348,7 +20348,7 @@
         <v>6</v>
       </c>
       <c r="C45" s="42" t="s">
-        <v>226</v>
+        <v>269</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.35">
@@ -20359,7 +20359,7 @@
         <v>1</v>
       </c>
       <c r="C46" s="41" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.35">
@@ -20370,7 +20370,7 @@
         <v>2</v>
       </c>
       <c r="C47" s="41" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.35">
@@ -20381,7 +20381,7 @@
         <v>3</v>
       </c>
       <c r="C48" s="41" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
@@ -20392,7 +20392,7 @@
         <v>4</v>
       </c>
       <c r="C49" s="41" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
@@ -20403,7 +20403,7 @@
         <v>5</v>
       </c>
       <c r="C50" s="41" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
@@ -20414,7 +20414,7 @@
         <v>6</v>
       </c>
       <c r="C51" s="41" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
@@ -20425,7 +20425,7 @@
         <v>7</v>
       </c>
       <c r="C52" s="41" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
@@ -20436,7 +20436,7 @@
         <v>8</v>
       </c>
       <c r="C53" s="41" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
     </row>
   </sheetData>

--- a/data/hag.xlsx
+++ b/data/hag.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NDSko\Desktop\DevAI\HayAutoGrade\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9491442-6720-4061-A2E0-DAC76AFA09D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64C5D472-E9FF-465C-93BE-F388945F96E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="563" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="563" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="questions" sheetId="1" r:id="rId1"/>
@@ -764,10 +764,6 @@
     <t>Сформулируйте главную цель этой роли. Какую основную ценность она создает для организации?</t>
   </si>
   <si>
-    <t>Опишите полную иерархию структурных подразделений, к которым относится эта роль, начиная с высшего уровня. Требуется указать минимум два уровня. Перечисляйте подразделения через запятую, от высшего к низшему.
-Пример: Департамент информационных технологий, Управление разработки, Отдел бэкенд-разработки</t>
-  </si>
-  <si>
     <t>"
 {user_answer}
 Проанализируй диалог и определи, назвал ли пользователь конкретную должность.
@@ -1271,32 +1267,6 @@
     <t>вспомогательный текст для столбца инструкция_проверки</t>
   </si>
   <si>
-    <t>Ты ведешь диалог с пользователем, чтобы узнать точное название должности, которую оцениваем.
-{dialog}
-АНАЛИЗИРУЙ ВСЮ ИСТОРИЮ ДИАЛОГА:
-- Учитывай все ответы пользователя, не только последний
-- Не задавай вопросы повторно
-- После 2-3 уточнений будь готов принять ответ
-ПРИНИМАЙ ответ, если понятно, какая конкретная должность имеется в виду:
-✓ "Менеджер по продажам"
-✓ "Frontend-разработчик"
-✓ "Главный бухгалтер"
-✓ "Менеджер"
-✓ "Аналитик"
-НЕ ПРИНИМАЙ слишком общие формулировки:
-✗ "Работник"
-✗ "Сотрудник"
-✗ "Человек который продает"
-✗ "Не знаю"
-ФОРМАТ ОТВЕТА:
-- Если название должности понятно → пиши: "ПРИНЯТО"
-- Если нужно уточнение → задай короткий конкретный вопрос (БЕЗ префикса "УТОЧНИ:")
-  Например: "Уточните, пожалуйста, конкретное название должности. Например: 'Менеджер по продажам' или 'Главный бухгалтер'."
-ЕСЛИ ПОЛЬЗОВАТЕЛЬ ЗАДАЕТ ВОПРОС:
-Ответь кратко. Если пользователь просит привести пример, приводи его на основе любой другой максимально простой должности, не схожей с той, которая сейчас оценивается. Не подстраивай пример под возможный профиль пользователя
-Например: "Должность - это название позиции, например: 'Менеджер по продажам', 'Программист', 'Бухгалтер'. Какая должность у вас?"</t>
-  </si>
-  <si>
     <t>Ты ведешь диалог с пользователем, чтобы узнать главную цель роли и ценность для организации.
 {dialog}
 АНАЛИЗИРУЙ ВСЮ ИСТОРИЮ ДИАЛОГА:
@@ -1324,39 +1294,6 @@
 Например: "Цель роли - это то, зачем нужна должность. Например: 'привлечение клиентов', 'обеспечение качества'. Расскажите о цели вашей роли?"</t>
   </si>
   <si>
-    <t>Ты ведешь диалог с пользователем, чтобы узнать иерархию структурных подразделений (минимум 2 уровня).
-{dialog}
-АНАЛИЗИРУЙ ВСЮ ИСТОРИЮ ДИАЛОГА:
-- Учитывай все ответы пользователя, не только последний
-- Не задавай вопросы повторно
-- После 2-3 уточнений будь готов принять ответ
-ОБЯЗАТЕЛЬНОЕ ТРЕБОВАНИЕ: Минимум ДВА уровня подразделений.
-Один уровень недопустим (это уровень генерального директора).
-ПРИНИМАЙ ответ, если указана иерархия из 2+ уровней:
-✓ "Коммерческий блок / Департамент продаж"
-✓ "IT-дирекция / Отдел разработки / Группа frontend"
-✓ "Финансовый блок / Бухгалтерия"
-✓ "Производственное подразделение / Цех №1"
-Принимай любой формат разделителей: "/", "&gt;", "-", "→" или текст "входит в", "подчиняется".
-НЕ ПРИНИМАЙ:
-✗ Только ОДИН уровень (недопустимо)
-✗ "Не знаю"
-✗ "Прямое подчинение директору"
-✗ Полностью не по теме
-ФОРМАТ ОТВЕТА:
-- Если указано минимум 2 уровня → пиши: "ПРИНЯТО"
-- Если указан только 1 уровень → объясни, что это уровень генерального директора, попроси указать более детальную структуру
-- Если нужно уточнение → задай короткий конкретный вопрос (БЕЗ префикса "УТОЧНИ:")
-  Например: "Укажите, пожалуйста, минимум два уровня. Например: 'IT-дирекция / Отдел разработки'."
-ЕСЛИ ПОЛЬЗОВАТЕЛЬ ЗАДАЕТ ВОПРОС:
-Кратко ответь, попроси указать структуру. Если пользователь просит привести пример, приводи его на основе любой другой максимально простой должности, не схожей с той, которая сейчас оценивается. Не подстраивай пример под возможный профиль пользователя
-Например: "Структурные подразделения - это иерархия отделов. Например: 'IT-дирекция / Отдел разработки'. Укажите минимум 2 уровня для вашей должности."</t>
-  </si>
-  <si>
-    <t>Назовите должность непосредственного руководителя для оцениваемой роли
-Пример: начальник отдела продаж</t>
-  </si>
-  <si>
     <t>Ты ведешь диалог с пользователем, чтобы узнать точную должность непосредственного руководителя.
 {dialog}
 АНАЛИЗИРУЙ ВСЮ ИСТОРИЮ ДИАЛОГА:
@@ -1382,14 +1319,6 @@
 ЕСЛИ ПОЛЬЗОВАТЕЛЬ ЗАДАЕТ ВОПРОС:
 Кратко ответь и попроси указать должность. Если пользователь просит привести пример, приводи его на основе любой другой максимально простой должности, не схожей с той, которая сейчас оценивается. Не подстраивай пример под возможный профиль пользователя
 Например: "Укажите должность вашего непосредственного руководителя, например: 'Начальник отдела продаж' или 'Директор департамента'."</t>
-  </si>
-  <si>
-    <t>Какое минимальное образование необходимо для этой роли?
-Пример: среднее специальное или высшее неполное</t>
-  </si>
-  <si>
-    <t>Нужно ли дополнительное профильное образование? Если да, укажите программы и статус (обязательные/рекомендуемые).
-Пример: курсы по технике продаж — рекомендуемые</t>
   </si>
   <si>
     <t>Ты ведешь диалог с пользователем, чтобы узнать требуется ли дополнительное профильное образование.
@@ -1421,10 +1350,6 @@
 ЕСЛИ ПОЛЬЗОВАТЕЛЬ ЗАДАЕТ ВОПРОС:
 Кратко ответь и попроси дать развернутый ответ. Если пользователь просит привести пример, приводи его на основе любой другой максимально простой должности, не схожей с той, которая сейчас оценивается. Не подстраивай пример под возможный профиль пользователя
 Например: "Дополнительное образование - это курсы, сертификации, программы повышения квалификации. Требуется ли что-то подобное для вашей должности?"</t>
-  </si>
-  <si>
-    <t>Какие знания и навыки требуются? Укажите важные языки (если нужны), профессиональные и технические умения, а также другие ключевые требования.
-Пример: свободное владение русским﻿ и английским (B2)﻿, базовые навыки работы с CRM</t>
   </si>
   <si>
     <t>Ты ведешь диалог с пользователем, чтобы узнать специализированные знания и навыки по категориям: Языки, Отраслевые знания, Технические навыки, Другие требования.
@@ -1465,10 +1390,6 @@
 Например: "Укажите требования по категориям: языки, отраслевые знания (финансы, IT и др.), технические навыки (ПО, инструменты), другие требования. Что требуется для вашей должности?"</t>
   </si>
   <si>
-    <t>Опишите взаимодействие с людьми: с кем, цель, частота.
-Пример: общение с клиентами для заключения сделок, ежедневно</t>
-  </si>
-  <si>
     <t>Ты ведешь диалог с пользователем, чтобы узнать уровень взаимодействия с людьми, требуемый для должности.
 {dialog}
 АНАЛИЗИРУЙ ВСЮ ИСТОРИЮ ДИАЛОГА:
@@ -1496,10 +1417,6 @@
 Например: "Опишите, с кем и как происходит взаимодействие: базовое общение и обмен информацией, убеждение и переговоры, или мотивация и управление людьми?"</t>
   </si>
   <si>
-    <t>Опишите уровень планирования: сроки, задачи, контроль, самостоятельность.
-Пример: планирует ежемесячные цели по продажам, самостоятельно выбирает методы работы</t>
-  </si>
-  <si>
     <t>Ты ведешь диалог с пользователем, чтобы узнать уровень планирования и организации для роли.
 {dialog}
 АНАЛИЗИРУЙ ВСЮ ИСТОРИЮ ДИАЛОГА:
@@ -1525,10 +1442,6 @@
 ЕСЛИ ПОЛЬЗОВАТЕЛЬ ЗАДАЕТ ВОПРОС:
 Кратко ответь и попроси описать задачи. Если пользователь просит привести пример, приводи его на основе любой другой максимально простой должности, не схожей с той, которая сейчас оценивается. Не подстраивай пример под возможный профиль пользователя
 Например: "Опишите характер ваших задач: выполнение конкретных операций, координация с коллегами, планирование работы отдела или управление несколькими направлениями?"</t>
-  </si>
-  <si>
-    <t>Какой уровень знаний и опыта требуется?
-Пример: опыт продаж от 1 года, базовые навыки переговоров</t>
   </si>
   <si>
     <t>Ты ведешь диалог с пользователем, чтобы узнать уровень экспертизы и глубины знаний, требуемый для должности.
@@ -1559,10 +1472,6 @@
 Например: "Опишите требуемый уровень экспертизы: базовые навыки с обучением на месте, специализированное образование и опыт, или глубокая экспертиза с многолетним опытом?"</t>
   </si>
   <si>
-    <t>Насколько свободно принимаются решения?
-Пример: самостоятельно выбирает способы привлечения клиентов и проводит переговоры</t>
-  </si>
-  <si>
     <t>Ты ведешь диалог с пользователем, чтобы узнать степень свободы мышления, требуемую для решения задач на должности.
 {dialog}
 АНАЛИЗИРУЙ ВСЮ ИСТОРИЮ ДИАЛОГА:
@@ -1589,10 +1498,6 @@
 ЕСЛИ ПОЛЬЗОВАТЕЛЬ ЗАДАЕТ ВОПРОС:
 Кратко ответь и попроси описать степень свободы. Если пользователь просит привести пример, приводи его на основе любой другой максимально простой должности, не схожей с той, которая сейчас оценивается. Не подстраивай пример под возможный профиль пользователя
 Например: "Опишите уровень самостоятельности: работа по строгим инструкциям, выбор из готовых вариантов, оптимизация процессов или разработка собственных методов работы?"</t>
-  </si>
-  <si>
-    <t>Как часто требуются нестандартные решения?
-Пример: регулярно, для адаптации под клиента</t>
   </si>
   <si>
     <t>Ты ведешь диалог с пользователем, чтобы узнать уровень креативности и оригинальности мышления, требуемый для должности.
@@ -1622,10 +1527,6 @@
 Например: "Опишите, как часто нужны нестандартные решения: работа по инструкции, выбор из готовых методов, адаптация подходов или создание новых концепций?"</t>
   </si>
   <si>
-    <t>Можно ли измерить результат работы в деньгах? Если да, укажите пример метрики.
-Пример: план по продажам — 10 млн рублей в квартал</t>
-  </si>
-  <si>
     <t>Ты ведешь диалог с пользователем, чтобы узнать можно ли оценить результат деятельности в денежном выражении за год.
 {dialog}
 АНАЛИЗИРУЙ ВСЮ ИСТОРИЮ ДИАЛОГА:
@@ -1653,10 +1554,6 @@
 ЕСЛИ ПОЛЬЗОВАТЕЛЬ ЗАДАЕТ ВОПРОС:
 Кратко ответь и попроси описать возможность оценки. Если пользователь просит привести пример, приводи его на основе любой другой максимально простой должности, не схожей с той, которая сейчас оценивается. Не подстраивай пример под возможный профиль пользователя
 Например: "Можно ли измерить результат вашей работы в деньгах? Например: план продаж, бюджет, экономия затрат. Если нельзя - так и укажите."</t>
-  </si>
-  <si>
-    <t>Опишите масштаб влияния: на какие процессы или подразделения влияет роль?
-Пример: влияет на доходы отдела продаж и общий коммерческий результат</t>
   </si>
   <si>
     <t>Ты ведешь диалог с пользователем, чтобы узнать степень влияния должности на конечные результаты компании.
@@ -1715,10 +1612,6 @@
 Например: "Опишите масштаб влияния: разовые поручения, работа внутри отдела, участие в ключевых процессах компании, аналитика и рекомендации или руководство командами?"</t>
   </si>
   <si>
-    <t>Опишите степень полномочий при принятии решений.
-Пример: принимает решения о скидках в рамках утверждённой политики</t>
-  </si>
-  <si>
     <t>Ты ведешь диалог с пользователем, чтобы узнать степень полномочий при принятии решений для должности.
 {dialog}
 АНАЛИЗИРУЙ ВСЮ ИСТОРИЮ ДИАЛОГА:
@@ -1746,10 +1639,6 @@
 ЕСЛИ ПОЛЬЗОВАТЕЛЬ ЗАДАЕТ ВОПРОС:
 Кратко ответь и попроси описать полномочия. Если пользователь просит привести пример, приводи его на основе любой другой максимально простой должности, не схожей с той, которая сейчас оценивается. Не подстраивай пример под возможный профиль пользователя
 Например: "Опишите степень полномочий: постоянный контроль, работа по инструкциям с выбором порядка действий, частичная самостоятельность или полная ответственность за результаты?"</t>
-  </si>
-  <si>
-    <t>Как организован контроль результатов работы? Кто и с какой частотой оценивает?
-Пример: контроль руководителем отдела еженедельно</t>
   </si>
   <si>
     <t>Укажите основные функции и задачи оцениваемой роли</t>
@@ -1782,9 +1671,6 @@
 ЕСЛИ ПОЛЬЗОВАТЕЛЬ ЗАДАЕТ ВОПРОС:
 Кратко ответь и попроси описать функционал. Если пользователь просит привести пример, приводи его на основе любой другой максимально простой должности, не схожей с той, которая сейчас оценивается. Не подстраивай пример под возможный профиль пользователя
 Например: "Функционал - это конкретные задачи, которые вы выполняете. Например: 'ведение CRM', 'переговоры с клиентами', 'подготовка отчетов'. Опишите ваши основные функции."</t>
-  </si>
-  <si>
-    <t>Выберите роль для оценки в структуре компании</t>
   </si>
   <si>
     <t>Добрый день! Этот опрос поможет оценить уровень позиции в вашей команде по международной методике HAY Group. 
@@ -1835,6 +1721,96 @@
   </si>
   <si>
     <t>VI. Воздействующее</t>
+  </si>
+  <si>
+    <t>Укажите точное название должности, которую мы оцениваем</t>
+  </si>
+  <si>
+    <t>Сколько уровней (CEO-1, CEO-2, CEO-3 и т.д.) отделяют сотрудника от генерального директора?</t>
+  </si>
+  <si>
+    <t>CEO-1;CEO-2;CEO-3;CEO-4;CEO-5 и более</t>
+  </si>
+  <si>
+    <t>Ты ведешь диалог с пользователем, чтобы узнать точное название должности, которую оцениваем.
+{dialog}
+АНАЛИЗИРУЙ ВСЮ ИСТОРИЮ ДИАЛОГА:
+- Учитывай все ответы пользователя, не только последний
+- Не задавай вопросы повторно
+- После 2-3 уточнений будь готов принять ответ
+ПРИНИМАЙ ответ, если понятно, какая конкретная должность имеется в виду:
+✓ "Менеджер по продажам"
+✓ "Frontend-разработчик"
+✓ "Главный бухгалтер"
+✓ "Менеджер"
+✓ "Аналитик"
+✓ "Руководитель направления"
+✓ "Руководитель проектов"
+✓ "Директор проектов"
+НЕ ПРИНИМАЙ слишком общие формулировки:
+✗ "Работник"
+✗ "Сотрудник"
+✗ "Человек который продает"
+✗ "Не знаю"
+ФОРМАТ ОТВЕТА:
+- Если название должности понятно → пиши: "ПРИНЯТО"
+- Если нужно уточнение → задай короткий конкретный вопрос (БЕЗ префикса "УТОЧНИ:")
+  Например: "Уточните, пожалуйста, конкретное название должности. Например: 'Менеджер по продажам' или 'Главный бухгалтер'."
+ЕСЛИ ПОЛЬЗОВАТЕЛЬ ЗАДАЕТ ВОПРОС:
+Ответь кратко. Если пользователь просит привести пример, приводи его на основе любой другой максимально простой должности, не схожей с той, которая сейчас оценивается. Не подстраивай пример под возможный профиль пользователя
+Например: "Должность - это название позиции, например: 'Менеджер по продажам', 'Программист', 'Бухгалтер'. Какая должность у вас?"</t>
+  </si>
+  <si>
+    <t>Назовите должность непосредственного руководителя для оцениваемой роли
+Например, для менеджера по продажам: начальник отдела продаж</t>
+  </si>
+  <si>
+    <t>Какое минимальное образование необходимо для этой роли?
+Например, для менеджера по продажам: среднее специальное или высшее неполное</t>
+  </si>
+  <si>
+    <t>Нужно ли дополнительное профильное образование? Если да, укажите программы и статус (обязательные/рекомендуемые).
+Например, для менеджера по продажам: курсы по технике продаж — рекомендуемые</t>
+  </si>
+  <si>
+    <t>Какие знания и навыки требуются? Укажите важные языки (если нужны), профессиональные и технические умения, а также другие ключевые требования.
+Например, для менеджера по продажам: свободное владение русским﻿ и английским (B2)﻿, базовые навыки работы с CRM</t>
+  </si>
+  <si>
+    <t>Опишите взаимодействие с людьми: с кем, цель, частота.
+Например, для менеджера по продажам: общение с клиентами для заключения сделок, ежедневно</t>
+  </si>
+  <si>
+    <t>Опишите уровень планирования: сроки, задачи, контроль, самостоятельность.
+Например, для менеджера по продажам: планирует ежемесячные цели по продажам, самостоятельно выбирает методы работы</t>
+  </si>
+  <si>
+    <t>Какой уровень знаний и опыта требуется?
+Например, для менеджера по продажам: опыт продаж от 1 года, базовые навыки переговоров</t>
+  </si>
+  <si>
+    <t>Насколько свободно принимаются решения?
+Например, для менеджера по продажам: самостоятельно выбирает способы привлечения клиентов и проводит переговоры</t>
+  </si>
+  <si>
+    <t>Как часто требуются нестандартные решения?
+Например, для менеджера по продажам: регулярно, для адаптации под клиента</t>
+  </si>
+  <si>
+    <t>Можно ли измерить результат работы в деньгах? Если да, укажите пример метрики.
+Например, для менеджера по продажам: план по продажам — 10 млн рублей в квартал</t>
+  </si>
+  <si>
+    <t>Опишите масштаб влияния: на какие процессы или подразделения влияет роль?
+Например, для менеджера по продажам: влияет на доходы отдела продаж и общий коммерческий результат</t>
+  </si>
+  <si>
+    <t>Опишите степень полномочий при принятии решений.
+Например, для менеджера по продажам: принимает решения о скидках в рамках утверждённой политики</t>
+  </si>
+  <si>
+    <t>Как организован контроль результатов работы? Кто и с какой частотой оценивает?
+Например, для менеджера по продажам: контроль руководителем отдела еженедельно</t>
   </si>
 </sst>
 </file>
@@ -2516,8 +2492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2552,10 +2528,10 @@
         <v>25</v>
       </c>
       <c r="G1" s="39" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
@@ -2566,25 +2542,26 @@
         <v>253</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>223</v>
+        <v>256</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="123.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="131" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>224</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="D3" s="6"/>
       <c r="G3" s="1" t="s">
         <v>208</v>
       </c>
@@ -2592,21 +2569,21 @@
         <v>179</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="131" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="123.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="108.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2614,16 +2591,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>226</v>
+        <v>257</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="130.5" x14ac:dyDescent="0.35">
@@ -2631,14 +2608,14 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>228</v>
+        <v>258</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="6"/>
       <c r="G6" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H6" s="6"/>
     </row>
@@ -2647,16 +2624,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>229</v>
+        <v>259</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
@@ -2664,16 +2641,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>231</v>
+        <v>260</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
@@ -2681,19 +2658,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>233</v>
+        <v>261</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
@@ -2701,19 +2678,19 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>235</v>
+        <v>262</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
@@ -2721,19 +2698,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>237</v>
+        <v>263</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>14</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="90.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2741,21 +2718,21 @@
         <v>11</v>
       </c>
       <c r="B12" s="33" t="s">
-        <v>239</v>
+        <v>264</v>
       </c>
       <c r="C12" s="33"/>
       <c r="D12" s="6" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="E12" s="33" t="s">
         <v>9</v>
       </c>
       <c r="F12" s="34"/>
       <c r="G12" s="34" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H12" s="33" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="110.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2763,21 +2740,21 @@
         <v>12</v>
       </c>
       <c r="B13" s="33" t="s">
-        <v>241</v>
+        <v>265</v>
       </c>
       <c r="C13" s="33"/>
       <c r="D13" s="6" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="E13" s="33" t="s">
         <v>11</v>
       </c>
       <c r="F13" s="34"/>
       <c r="G13" s="34" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H13" s="33" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
@@ -2785,19 +2762,19 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>243</v>
+        <v>266</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
@@ -2805,10 +2782,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>245</v>
+        <v>267</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>18</v>
@@ -2817,10 +2794,10 @@
         <v>23</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
@@ -2828,10 +2805,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>245</v>
+        <v>267</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>19</v>
@@ -2840,10 +2817,10 @@
         <v>24</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="343.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2851,34 +2828,34 @@
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>248</v>
+        <v>268</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>21</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>250</v>
+        <v>269</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D18" s="6"/>
       <c r="G18" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H18" s="3"/>
     </row>
@@ -2887,16 +2864,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
@@ -19829,7 +19806,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
-        <v>254</v>
+        <v>237</v>
       </c>
     </row>
   </sheetData>
@@ -19841,7 +19818,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C49D5B3B-4CF0-40E5-A45D-13ED7B1921AB}">
   <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection sqref="A1:C53"/>
     </sheetView>
   </sheetViews>
@@ -19857,13 +19834,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -20193,7 +20170,7 @@
         <v>1</v>
       </c>
       <c r="C31" s="41" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
@@ -20204,7 +20181,7 @@
         <v>2</v>
       </c>
       <c r="C32" s="41" t="s">
-        <v>256</v>
+        <v>239</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.35">
@@ -20215,7 +20192,7 @@
         <v>3</v>
       </c>
       <c r="C33" s="41" t="s">
-        <v>257</v>
+        <v>240</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.35">
@@ -20226,7 +20203,7 @@
         <v>4</v>
       </c>
       <c r="C34" s="41" t="s">
-        <v>258</v>
+        <v>241</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.35">
@@ -20237,7 +20214,7 @@
         <v>5</v>
       </c>
       <c r="C35" s="41" t="s">
-        <v>259</v>
+        <v>242</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.35">
@@ -20248,7 +20225,7 @@
         <v>1</v>
       </c>
       <c r="C36" s="41" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="I36" s="3"/>
     </row>
@@ -20260,7 +20237,7 @@
         <v>2</v>
       </c>
       <c r="C37" s="41" t="s">
-        <v>261</v>
+        <v>244</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.35">
@@ -20271,7 +20248,7 @@
         <v>3</v>
       </c>
       <c r="C38" s="41" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.35">
@@ -20282,7 +20259,7 @@
         <v>4</v>
       </c>
       <c r="C39" s="41" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.35">
@@ -20293,7 +20270,7 @@
         <v>1</v>
       </c>
       <c r="C40" s="42" t="s">
-        <v>264</v>
+        <v>247</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.35">
@@ -20304,7 +20281,7 @@
         <v>2</v>
       </c>
       <c r="C41" s="42" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.35">
@@ -20315,7 +20292,7 @@
         <v>3</v>
       </c>
       <c r="C42" s="42" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.35">
@@ -20326,7 +20303,7 @@
         <v>4</v>
       </c>
       <c r="C43" s="42" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.35">
@@ -20337,7 +20314,7 @@
         <v>5</v>
       </c>
       <c r="C44" s="42" t="s">
-        <v>268</v>
+        <v>251</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.35">
@@ -20348,7 +20325,7 @@
         <v>6</v>
       </c>
       <c r="C45" s="42" t="s">
-        <v>269</v>
+        <v>252</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.35">
@@ -20359,7 +20336,7 @@
         <v>1</v>
       </c>
       <c r="C46" s="41" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.35">
@@ -20370,7 +20347,7 @@
         <v>2</v>
       </c>
       <c r="C47" s="41" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.35">
@@ -20381,7 +20358,7 @@
         <v>3</v>
       </c>
       <c r="C48" s="41" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
@@ -20392,7 +20369,7 @@
         <v>4</v>
       </c>
       <c r="C49" s="41" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
@@ -20403,7 +20380,7 @@
         <v>5</v>
       </c>
       <c r="C50" s="41" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
@@ -20414,7 +20391,7 @@
         <v>6</v>
       </c>
       <c r="C51" s="41" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
@@ -20425,7 +20402,7 @@
         <v>7</v>
       </c>
       <c r="C52" s="41" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
@@ -20436,7 +20413,7 @@
         <v>8</v>
       </c>
       <c r="C53" s="41" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>

--- a/data/hag.xlsx
+++ b/data/hag.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NDSko\Desktop\DevAI\HayAutoGrade\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64C5D472-E9FF-465C-93BE-F388945F96E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF2543C7-3480-43BA-90F6-61DA21DB75D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="563" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1777,10 +1777,6 @@
 Например, для менеджера по продажам: свободное владение русским﻿ и английским (B2)﻿, базовые навыки работы с CRM</t>
   </si>
   <si>
-    <t>Опишите взаимодействие с людьми: с кем, цель, частота.
-Например, для менеджера по продажам: общение с клиентами для заключения сделок, ежедневно</t>
-  </si>
-  <si>
     <t>Опишите уровень планирования: сроки, задачи, контроль, самостоятельность.
 Например, для менеджера по продажам: планирует ежемесячные цели по продажам, самостоятельно выбирает методы работы</t>
   </si>
@@ -1811,6 +1807,10 @@
   <si>
     <t>Как организован контроль результатов работы? Кто и с какой частотой оценивает?
 Например, для менеджера по продажам: контроль руководителем отдела еженедельно</t>
+  </si>
+  <si>
+    <t>С кем будет взаимодействовать данная роль? Как часто и с какой целью?
+Например, для менеджера по продажам: общение с клиентами для заключения сделок, ежедневно</t>
   </si>
 </sst>
 </file>
@@ -2492,8 +2492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2658,7 +2658,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>226</v>
@@ -2678,7 +2678,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>227</v>
@@ -2698,7 +2698,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>228</v>
@@ -2718,7 +2718,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="33" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C12" s="33"/>
       <c r="D12" s="6" t="s">
@@ -2740,7 +2740,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="33" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C13" s="33"/>
       <c r="D13" s="6" t="s">
@@ -2762,7 +2762,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>231</v>
@@ -2782,7 +2782,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>232</v>
@@ -2805,7 +2805,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>233</v>
@@ -2828,7 +2828,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>234</v>
@@ -2848,7 +2848,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>22</v>
